--- a/sources/excel/项目基础信息.xlsx
+++ b/sources/excel/项目基础信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13380" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目信息" sheetId="2" r:id="rId1"/>
@@ -1360,7 +1360,7 @@
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -2206,10 +2206,10 @@
   <dimension ref="A1:O198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -2398,7 +2398,7 @@
         <v>29</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>25</v>
@@ -5757,7 +5757,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E198">
       <formula1>"WEB,安卓,微信小程序"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G7 G8:G198 H2:J7 I8:J198">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G198 H2:J7 I8:J198">
       <formula1>"关闭,启用"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5785,7 +5785,7 @@
       <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>

--- a/sources/excel/项目基础信息.xlsx
+++ b/sources/excel/项目基础信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目信息" sheetId="2" r:id="rId1"/>
@@ -2206,7 +2206,7 @@
   <dimension ref="A1:O198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -2364,7 +2364,7 @@
         <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>24</v>

--- a/sources/excel/项目基础信息.xlsx
+++ b/sources/excel/项目基础信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11655" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目信息" sheetId="2" r:id="rId1"/>
@@ -2206,7 +2206,7 @@
   <dimension ref="A1:O198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -2398,7 +2398,7 @@
         <v>29</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>25</v>

--- a/sources/excel/项目基础信息.xlsx
+++ b/sources/excel/项目基础信息.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="项目信息" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -37,16 +37,10 @@
     <t>名称</t>
   </si>
   <si>
-    <t>CDP</t>
+    <t>芒果mock</t>
   </si>
   <si>
-    <t>DESK</t>
-  </si>
-  <si>
-    <t>玩安卓</t>
-  </si>
-  <si>
-    <t>百度翻译</t>
+    <t>百度</t>
   </si>
   <si>
     <t>gitee</t>
@@ -94,37 +88,13 @@
     <t>db_database</t>
   </si>
   <si>
-    <t>测试环境</t>
+    <t>生产环境</t>
   </si>
   <si>
-    <t>CDP预发环境</t>
+    <t>百度生产环境</t>
   </si>
   <si>
     <t>WEB</t>
-  </si>
-  <si>
-    <t>关闭</t>
-  </si>
-  <si>
-    <t>启用</t>
-  </si>
-  <si>
-    <t>生产环境</t>
-  </si>
-  <si>
-    <t>线上环境</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9.75"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://wanandroid.com/</t>
-    </r>
   </si>
   <si>
     <r>
@@ -139,7 +109,13 @@
     </r>
   </si>
   <si>
-    <t>gitee线上环境</t>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>gitee生产环境</t>
   </si>
   <si>
     <r>
@@ -184,6 +160,12 @@
     <t>mango-server</t>
   </si>
   <si>
+    <t>芒果mock生产环境</t>
+  </si>
+  <si>
+    <t>http://43.142.161.61:8003/</t>
+  </si>
+  <si>
     <t>类型</t>
   </si>
   <si>
@@ -194,38 +176,22 @@
   </si>
   <si>
     <r>
+      <t>[</t>
+    </r>
+    <r>
       <rPr>
-        <sz val="9.75"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
+        <sz val="10"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>["</t>
+      <t>"</t>
     </r>
     <r>
       <rPr>
         <u/>
-        <sz val="9.75"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>maopeng@zalldigital.com</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>","</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9.75"/>
-        <color theme="10"/>
+        <color rgb="FF800080"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
@@ -234,25 +200,11 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF800080"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>"]</t>
-    </r>
-  </si>
-  <si>
-    <t>企微</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9.75"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://qyapi.weixin.qq.com/cgi-bin/webhook/send?key=11491e1a-11db-4b17-8eff-dd5a4c6ccdf2</t>
     </r>
   </si>
   <si>
@@ -285,6 +237,36 @@
       <t>"]</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>["</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9.75"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>729164036@qq.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"]</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -296,7 +278,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -472,6 +454,19 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -675,7 +670,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -702,19 +697,6 @@
       <left style="thin">
         <color rgb="FF1F2329"/>
       </left>
-      <right style="thin">
-        <color rgb="FF1F2329"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF1F2329"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF1F2329"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FF1F2329"/>
@@ -732,19 +714,6 @@
       <top style="thin">
         <color rgb="FF1F2329"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF1F2329"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF1F2329"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF1F2329"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF1F2329"/>
       </bottom>
@@ -872,7 +841,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -884,34 +853,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -996,7 +965,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1009,29 +978,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1354,13 +1317,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B199"/>
+  <dimension ref="A1:B196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="B5 D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -1375,7 +1338,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1383,814 +1346,792 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="9"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="9"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="9"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="5"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="5"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="5"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="5"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="5"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="5"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="5"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="5"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="5"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="5"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="5"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="5"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="5"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="5"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="5"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="5"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="5"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="5"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="5"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="5"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="5"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="5"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="5"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="5"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="5"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="5"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="5"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="3"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="5"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="5"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="5"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="5"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="5"/>
+      <c r="A47" s="9"/>
       <c r="B47" s="3"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="5"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="5"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="3"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="5"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="5"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="5"/>
+      <c r="A52" s="9"/>
       <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="5"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="5"/>
+      <c r="A54" s="9"/>
       <c r="B54" s="3"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="5"/>
+      <c r="A55" s="9"/>
       <c r="B55" s="3"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="5"/>
+      <c r="A56" s="9"/>
       <c r="B56" s="3"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="5"/>
+      <c r="A57" s="9"/>
       <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="5"/>
+      <c r="A58" s="9"/>
       <c r="B58" s="3"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="5"/>
+      <c r="A59" s="9"/>
       <c r="B59" s="3"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="5"/>
+      <c r="A60" s="9"/>
       <c r="B60" s="3"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="5"/>
+      <c r="A61" s="9"/>
       <c r="B61" s="3"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="5"/>
+      <c r="A62" s="9"/>
       <c r="B62" s="3"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="5"/>
+      <c r="A63" s="9"/>
       <c r="B63" s="3"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="5"/>
+      <c r="A64" s="9"/>
       <c r="B64" s="3"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="5"/>
+      <c r="A65" s="9"/>
       <c r="B65" s="3"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="5"/>
+      <c r="A66" s="9"/>
       <c r="B66" s="3"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="5"/>
+      <c r="A67" s="9"/>
       <c r="B67" s="3"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="5"/>
+      <c r="A68" s="9"/>
       <c r="B68" s="3"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="5"/>
+      <c r="A69" s="9"/>
       <c r="B69" s="3"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="5"/>
+      <c r="A70" s="9"/>
       <c r="B70" s="3"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="5"/>
+      <c r="A71" s="9"/>
       <c r="B71" s="3"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="5"/>
+      <c r="A72" s="9"/>
       <c r="B72" s="3"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="5"/>
+      <c r="A73" s="9"/>
       <c r="B73" s="3"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="5"/>
+      <c r="A74" s="9"/>
       <c r="B74" s="3"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="5"/>
+      <c r="A75" s="9"/>
       <c r="B75" s="3"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="5"/>
+      <c r="A76" s="9"/>
       <c r="B76" s="3"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="5"/>
+      <c r="A77" s="9"/>
       <c r="B77" s="3"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="5"/>
+      <c r="A78" s="9"/>
       <c r="B78" s="3"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="5"/>
+      <c r="A79" s="9"/>
       <c r="B79" s="3"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="5"/>
+      <c r="A80" s="9"/>
       <c r="B80" s="3"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="5"/>
+      <c r="A81" s="9"/>
       <c r="B81" s="3"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="5"/>
+      <c r="A82" s="9"/>
       <c r="B82" s="3"/>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="5"/>
+      <c r="A83" s="9"/>
       <c r="B83" s="3"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="5"/>
+      <c r="A84" s="9"/>
       <c r="B84" s="3"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="5"/>
+      <c r="A85" s="9"/>
       <c r="B85" s="3"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="5"/>
+      <c r="A86" s="9"/>
       <c r="B86" s="3"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="5"/>
+      <c r="A87" s="9"/>
       <c r="B87" s="3"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="5"/>
+      <c r="A88" s="9"/>
       <c r="B88" s="3"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="5"/>
+      <c r="A89" s="9"/>
       <c r="B89" s="3"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="5"/>
+      <c r="A90" s="9"/>
       <c r="B90" s="3"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="5"/>
+      <c r="A91" s="9"/>
       <c r="B91" s="3"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="5"/>
+      <c r="A92" s="9"/>
       <c r="B92" s="3"/>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="5"/>
+      <c r="A93" s="9"/>
       <c r="B93" s="3"/>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="5"/>
+      <c r="A94" s="9"/>
       <c r="B94" s="3"/>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="5"/>
+      <c r="A95" s="9"/>
       <c r="B95" s="3"/>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="5"/>
+      <c r="A96" s="9"/>
       <c r="B96" s="3"/>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="5"/>
+      <c r="A97" s="9"/>
       <c r="B97" s="3"/>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="5"/>
+      <c r="A98" s="9"/>
       <c r="B98" s="3"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="5"/>
+      <c r="A99" s="9"/>
       <c r="B99" s="3"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="5"/>
+      <c r="A100" s="9"/>
       <c r="B100" s="3"/>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="5"/>
+      <c r="A101" s="9"/>
       <c r="B101" s="3"/>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="5"/>
+      <c r="A102" s="9"/>
       <c r="B102" s="3"/>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="5"/>
+      <c r="A103" s="9"/>
       <c r="B103" s="3"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="5"/>
+      <c r="A104" s="9"/>
       <c r="B104" s="3"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="5"/>
+      <c r="A105" s="9"/>
       <c r="B105" s="3"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="5"/>
+      <c r="A106" s="9"/>
       <c r="B106" s="3"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="5"/>
+      <c r="A107" s="9"/>
       <c r="B107" s="3"/>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="5"/>
+      <c r="A108" s="9"/>
       <c r="B108" s="3"/>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="5"/>
+      <c r="A109" s="9"/>
       <c r="B109" s="3"/>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="5"/>
+      <c r="A110" s="9"/>
       <c r="B110" s="3"/>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="5"/>
+      <c r="A111" s="9"/>
       <c r="B111" s="3"/>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="5"/>
+      <c r="A112" s="9"/>
       <c r="B112" s="3"/>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="5"/>
+      <c r="A113" s="9"/>
       <c r="B113" s="3"/>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="5"/>
+      <c r="A114" s="9"/>
       <c r="B114" s="3"/>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="5"/>
+      <c r="A115" s="9"/>
       <c r="B115" s="3"/>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="5"/>
+      <c r="A116" s="9"/>
       <c r="B116" s="3"/>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="5"/>
+      <c r="A117" s="9"/>
       <c r="B117" s="3"/>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="5"/>
+      <c r="A118" s="9"/>
       <c r="B118" s="3"/>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="5"/>
+      <c r="A119" s="9"/>
       <c r="B119" s="3"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="5"/>
+      <c r="A120" s="9"/>
       <c r="B120" s="3"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="5"/>
+      <c r="A121" s="9"/>
       <c r="B121" s="3"/>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="5"/>
+      <c r="A122" s="9"/>
       <c r="B122" s="3"/>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="5"/>
+      <c r="A123" s="9"/>
       <c r="B123" s="3"/>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="5"/>
+      <c r="A124" s="9"/>
       <c r="B124" s="3"/>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="5"/>
+      <c r="A125" s="9"/>
       <c r="B125" s="3"/>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="5"/>
+      <c r="A126" s="9"/>
       <c r="B126" s="3"/>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="5"/>
+      <c r="A127" s="9"/>
       <c r="B127" s="3"/>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="5"/>
+      <c r="A128" s="9"/>
       <c r="B128" s="3"/>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="5"/>
+      <c r="A129" s="9"/>
       <c r="B129" s="3"/>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="5"/>
+      <c r="A130" s="9"/>
       <c r="B130" s="3"/>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="5"/>
+      <c r="A131" s="9"/>
       <c r="B131" s="3"/>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="5"/>
+      <c r="A132" s="9"/>
       <c r="B132" s="3"/>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="5"/>
+      <c r="A133" s="9"/>
       <c r="B133" s="3"/>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="5"/>
+      <c r="A134" s="9"/>
       <c r="B134" s="3"/>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="5"/>
+      <c r="A135" s="9"/>
       <c r="B135" s="3"/>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="5"/>
+      <c r="A136" s="9"/>
       <c r="B136" s="3"/>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="5"/>
+      <c r="A137" s="9"/>
       <c r="B137" s="3"/>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="5"/>
+      <c r="A138" s="9"/>
       <c r="B138" s="3"/>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="5"/>
+      <c r="A139" s="9"/>
       <c r="B139" s="3"/>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="5"/>
+      <c r="A140" s="9"/>
       <c r="B140" s="3"/>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="5"/>
+      <c r="A141" s="9"/>
       <c r="B141" s="3"/>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="5"/>
+      <c r="A142" s="9"/>
       <c r="B142" s="3"/>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="5"/>
+      <c r="A143" s="9"/>
       <c r="B143" s="3"/>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="5"/>
+      <c r="A144" s="9"/>
       <c r="B144" s="3"/>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="5"/>
+      <c r="A145" s="9"/>
       <c r="B145" s="3"/>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="5"/>
+      <c r="A146" s="9"/>
       <c r="B146" s="3"/>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="5"/>
+      <c r="A147" s="9"/>
       <c r="B147" s="3"/>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="5"/>
+      <c r="A148" s="9"/>
       <c r="B148" s="3"/>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="5"/>
+      <c r="A149" s="9"/>
       <c r="B149" s="3"/>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="5"/>
+      <c r="A150" s="9"/>
       <c r="B150" s="3"/>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="5"/>
+      <c r="A151" s="9"/>
       <c r="B151" s="3"/>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="5"/>
+      <c r="A152" s="9"/>
       <c r="B152" s="3"/>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="5"/>
+      <c r="A153" s="9"/>
       <c r="B153" s="3"/>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="5"/>
+      <c r="A154" s="9"/>
       <c r="B154" s="3"/>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="5"/>
+      <c r="A155" s="9"/>
       <c r="B155" s="3"/>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="5"/>
+      <c r="A156" s="9"/>
       <c r="B156" s="3"/>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="5"/>
+      <c r="A157" s="9"/>
       <c r="B157" s="3"/>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="5"/>
+      <c r="A158" s="9"/>
       <c r="B158" s="3"/>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="5"/>
+      <c r="A159" s="9"/>
       <c r="B159" s="3"/>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="5"/>
+      <c r="A160" s="9"/>
       <c r="B160" s="3"/>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="5"/>
+      <c r="A161" s="9"/>
       <c r="B161" s="3"/>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="5"/>
+      <c r="A162" s="9"/>
       <c r="B162" s="3"/>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="5"/>
+      <c r="A163" s="9"/>
       <c r="B163" s="3"/>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="5"/>
+      <c r="A164" s="9"/>
       <c r="B164" s="3"/>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="5"/>
+      <c r="A165" s="9"/>
       <c r="B165" s="3"/>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="5"/>
+      <c r="A166" s="9"/>
       <c r="B166" s="3"/>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="5"/>
+      <c r="A167" s="9"/>
       <c r="B167" s="3"/>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="5"/>
+      <c r="A168" s="9"/>
       <c r="B168" s="3"/>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="5"/>
+      <c r="A169" s="9"/>
       <c r="B169" s="3"/>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="5"/>
+      <c r="A170" s="9"/>
       <c r="B170" s="3"/>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="5"/>
+      <c r="A171" s="9"/>
       <c r="B171" s="3"/>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="5"/>
+      <c r="A172" s="9"/>
       <c r="B172" s="3"/>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="5"/>
+      <c r="A173" s="9"/>
       <c r="B173" s="3"/>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="5"/>
+      <c r="A174" s="9"/>
       <c r="B174" s="3"/>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="5"/>
+      <c r="A175" s="9"/>
       <c r="B175" s="3"/>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="5"/>
+      <c r="A176" s="9"/>
       <c r="B176" s="3"/>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="5"/>
+      <c r="A177" s="9"/>
       <c r="B177" s="3"/>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="5"/>
+      <c r="A178" s="9"/>
       <c r="B178" s="3"/>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="5"/>
+      <c r="A179" s="9"/>
       <c r="B179" s="3"/>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="5"/>
+      <c r="A180" s="9"/>
       <c r="B180" s="3"/>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="5"/>
+      <c r="A181" s="9"/>
       <c r="B181" s="3"/>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="5"/>
+      <c r="A182" s="9"/>
       <c r="B182" s="3"/>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="5"/>
+      <c r="A183" s="9"/>
       <c r="B183" s="3"/>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="5"/>
+      <c r="A184" s="9"/>
       <c r="B184" s="3"/>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="5"/>
+      <c r="A185" s="9"/>
       <c r="B185" s="3"/>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="5"/>
+      <c r="A186" s="9"/>
       <c r="B186" s="3"/>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="5"/>
+      <c r="A187" s="9"/>
       <c r="B187" s="3"/>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="5"/>
+      <c r="A188" s="9"/>
       <c r="B188" s="3"/>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="5"/>
+      <c r="A189" s="9"/>
       <c r="B189" s="3"/>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="5"/>
+      <c r="A190" s="9"/>
       <c r="B190" s="3"/>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="5"/>
+      <c r="A191" s="9"/>
       <c r="B191" s="3"/>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="5"/>
+      <c r="A192" s="9"/>
       <c r="B192" s="3"/>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="5"/>
+      <c r="A193" s="9"/>
       <c r="B193" s="3"/>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="5"/>
+      <c r="A194" s="9"/>
       <c r="B194" s="3"/>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195" s="5"/>
+      <c r="A195" s="9"/>
       <c r="B195" s="3"/>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="5"/>
+      <c r="A196" s="9"/>
       <c r="B196" s="3"/>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="5"/>
-      <c r="B197" s="3"/>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="5"/>
-      <c r="B198" s="3"/>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="5"/>
-      <c r="B199" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2203,13 +2144,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O198"/>
+  <dimension ref="A1:O195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -2225,78 +2166,78 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="M1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="N1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="O1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="6">
-        <v>123</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>24</v>
+      <c r="I2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -2305,35 +2246,35 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="5">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>24</v>
+      <c r="I3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -2342,72 +2283,82 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="5">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3306</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="3">
+        <v>123456</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="J5" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -2416,36 +2367,16 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="A6" s="9"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -2453,63 +2384,33 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="3">
-        <v>3306</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="3">
-        <v>123456</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A7" s="9"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -2517,16 +2418,16 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -2534,16 +2435,16 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -2551,16 +2452,16 @@
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -2568,16 +2469,16 @@
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -2585,16 +2486,16 @@
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -2602,16 +2503,16 @@
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -2619,16 +2520,16 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -2636,16 +2537,16 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -2653,16 +2554,16 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -2670,16 +2571,16 @@
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -2687,16 +2588,16 @@
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -2704,16 +2605,16 @@
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -2721,16 +2622,16 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -2738,16 +2639,16 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -2755,16 +2656,16 @@
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -2772,16 +2673,16 @@
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -2789,16 +2690,16 @@
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -2806,16 +2707,16 @@
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -2823,16 +2724,16 @@
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -2840,16 +2741,16 @@
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -2857,16 +2758,16 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -2874,16 +2775,16 @@
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -2891,16 +2792,16 @@
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -2908,16 +2809,16 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -2925,16 +2826,16 @@
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -2942,16 +2843,16 @@
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="5"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -2959,16 +2860,16 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -2976,16 +2877,16 @@
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -2993,16 +2894,16 @@
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="9"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -3010,16 +2911,16 @@
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="5"/>
+      <c r="E38" s="9"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -3027,16 +2928,16 @@
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="5"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="9"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -3044,16 +2945,16 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="5"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="5"/>
+      <c r="E40" s="9"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -3061,16 +2962,16 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="5"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="5"/>
+      <c r="E41" s="9"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -3078,16 +2979,16 @@
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="5"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="9"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -3095,16 +2996,16 @@
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="5"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="5"/>
+      <c r="E43" s="9"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -3112,16 +3013,16 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="5"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="9"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="5"/>
+      <c r="E44" s="9"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -3129,16 +3030,16 @@
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="5"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="5"/>
+      <c r="E45" s="9"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -3146,16 +3047,16 @@
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="5"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="9"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="5"/>
+      <c r="E46" s="9"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -3163,16 +3064,16 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="5"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -3180,16 +3081,16 @@
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="5"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="9"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="5"/>
+      <c r="E48" s="9"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -3197,16 +3098,16 @@
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="5"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="5"/>
+      <c r="E49" s="9"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -3214,16 +3115,16 @@
       <c r="O49" s="3"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="5"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="9"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="5"/>
+      <c r="E50" s="9"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -3231,16 +3132,16 @@
       <c r="O50" s="3"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="5"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="9"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="5"/>
+      <c r="E51" s="9"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -3248,16 +3149,16 @@
       <c r="O51" s="3"/>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="5"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="5"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="9"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="5"/>
+      <c r="E52" s="9"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -3265,16 +3166,16 @@
       <c r="O52" s="3"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="5"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="5"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="9"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="5"/>
+      <c r="E53" s="9"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -3282,16 +3183,16 @@
       <c r="O53" s="3"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="5"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="5"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="9"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="5"/>
+      <c r="E54" s="9"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -3299,16 +3200,16 @@
       <c r="O54" s="3"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="5"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="5"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="9"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="5"/>
+      <c r="E55" s="9"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -3316,16 +3217,16 @@
       <c r="O55" s="3"/>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="5"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="9"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="5"/>
+      <c r="E56" s="9"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
@@ -3333,16 +3234,16 @@
       <c r="O56" s="3"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="5"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="5"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="5"/>
+      <c r="E57" s="9"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
@@ -3350,16 +3251,16 @@
       <c r="O57" s="3"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="5"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="5"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="9"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="5"/>
+      <c r="E58" s="9"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
@@ -3367,16 +3268,16 @@
       <c r="O58" s="3"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="5"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="5"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="9"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="5"/>
+      <c r="E59" s="9"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -3384,16 +3285,16 @@
       <c r="O59" s="3"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="5"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="5"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="9"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="5"/>
+      <c r="E60" s="9"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -3401,16 +3302,16 @@
       <c r="O60" s="3"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="5"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="5"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="9"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="5"/>
+      <c r="E61" s="9"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -3418,16 +3319,16 @@
       <c r="O61" s="3"/>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="5"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="5"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="9"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="5"/>
+      <c r="E62" s="9"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -3435,16 +3336,16 @@
       <c r="O62" s="3"/>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="5"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="5"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="9"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="5"/>
+      <c r="E63" s="9"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
@@ -3452,16 +3353,16 @@
       <c r="O63" s="3"/>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="5"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="5"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="9"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="5"/>
+      <c r="E64" s="9"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
@@ -3469,16 +3370,16 @@
       <c r="O64" s="3"/>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="5"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="5"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="9"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="5"/>
+      <c r="E65" s="9"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
@@ -3486,16 +3387,16 @@
       <c r="O65" s="3"/>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="5"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="5"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="9"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="5"/>
+      <c r="E66" s="9"/>
       <c r="F66" s="3"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
@@ -3503,16 +3404,16 @@
       <c r="O66" s="3"/>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="5"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="5"/>
+      <c r="A67" s="9"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="9"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="5"/>
+      <c r="E67" s="9"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
@@ -3520,16 +3421,16 @@
       <c r="O67" s="3"/>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="5"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="5"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="9"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="5"/>
+      <c r="E68" s="9"/>
       <c r="F68" s="3"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -3537,16 +3438,16 @@
       <c r="O68" s="3"/>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="5"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="5"/>
+      <c r="A69" s="9"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="9"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="5"/>
+      <c r="E69" s="9"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
@@ -3554,16 +3455,16 @@
       <c r="O69" s="3"/>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="5"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="5"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="9"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="5"/>
+      <c r="E70" s="9"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
@@ -3571,16 +3472,16 @@
       <c r="O70" s="3"/>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="5"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="5"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="9"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="5"/>
+      <c r="E71" s="9"/>
       <c r="F71" s="3"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
@@ -3588,16 +3489,16 @@
       <c r="O71" s="3"/>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="5"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="5"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="9"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="5"/>
+      <c r="E72" s="9"/>
       <c r="F72" s="3"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
@@ -3605,16 +3506,16 @@
       <c r="O72" s="3"/>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="5"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="5"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="9"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="5"/>
+      <c r="E73" s="9"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
@@ -3622,16 +3523,16 @@
       <c r="O73" s="3"/>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="5"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="5"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="9"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="5"/>
+      <c r="E74" s="9"/>
       <c r="F74" s="3"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
@@ -3639,16 +3540,16 @@
       <c r="O74" s="3"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="5"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="5"/>
+      <c r="A75" s="9"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="9"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="5"/>
+      <c r="E75" s="9"/>
       <c r="F75" s="3"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
@@ -3656,16 +3557,16 @@
       <c r="O75" s="3"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="5"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="5"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="9"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="5"/>
+      <c r="E76" s="9"/>
       <c r="F76" s="3"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
@@ -3673,16 +3574,16 @@
       <c r="O76" s="3"/>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="5"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="5"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="9"/>
       <c r="D77" s="3"/>
-      <c r="E77" s="5"/>
+      <c r="E77" s="9"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
@@ -3690,16 +3591,16 @@
       <c r="O77" s="3"/>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="5"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="5"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="9"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="5"/>
+      <c r="E78" s="9"/>
       <c r="F78" s="3"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
@@ -3707,16 +3608,16 @@
       <c r="O78" s="3"/>
     </row>
     <row r="79" spans="1:15">
-      <c r="A79" s="5"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="5"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="9"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="5"/>
+      <c r="E79" s="9"/>
       <c r="F79" s="3"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
@@ -3724,16 +3625,16 @@
       <c r="O79" s="3"/>
     </row>
     <row r="80" spans="1:15">
-      <c r="A80" s="5"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="5"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="9"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="5"/>
+      <c r="E80" s="9"/>
       <c r="F80" s="3"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
@@ -3741,16 +3642,16 @@
       <c r="O80" s="3"/>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="5"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="5"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="9"/>
       <c r="D81" s="3"/>
-      <c r="E81" s="5"/>
+      <c r="E81" s="9"/>
       <c r="F81" s="3"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
@@ -3758,16 +3659,16 @@
       <c r="O81" s="3"/>
     </row>
     <row r="82" spans="1:15">
-      <c r="A82" s="5"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="9"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="5"/>
+      <c r="E82" s="9"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
@@ -3775,16 +3676,16 @@
       <c r="O82" s="3"/>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="5"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="5"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="9"/>
       <c r="D83" s="3"/>
-      <c r="E83" s="5"/>
+      <c r="E83" s="9"/>
       <c r="F83" s="3"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
@@ -3792,16 +3693,16 @@
       <c r="O83" s="3"/>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" s="5"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="5"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="9"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="5"/>
+      <c r="E84" s="9"/>
       <c r="F84" s="3"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
@@ -3809,16 +3710,16 @@
       <c r="O84" s="3"/>
     </row>
     <row r="85" spans="1:15">
-      <c r="A85" s="5"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="5"/>
+      <c r="A85" s="9"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="9"/>
       <c r="D85" s="3"/>
-      <c r="E85" s="5"/>
+      <c r="E85" s="9"/>
       <c r="F85" s="3"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
@@ -3826,16 +3727,16 @@
       <c r="O85" s="3"/>
     </row>
     <row r="86" spans="1:15">
-      <c r="A86" s="5"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="5"/>
+      <c r="A86" s="9"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="9"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="5"/>
+      <c r="E86" s="9"/>
       <c r="F86" s="3"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
@@ -3843,16 +3744,16 @@
       <c r="O86" s="3"/>
     </row>
     <row r="87" spans="1:15">
-      <c r="A87" s="5"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="5"/>
+      <c r="A87" s="9"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="9"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="5"/>
+      <c r="E87" s="9"/>
       <c r="F87" s="3"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
@@ -3860,16 +3761,16 @@
       <c r="O87" s="3"/>
     </row>
     <row r="88" spans="1:15">
-      <c r="A88" s="5"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="5"/>
+      <c r="A88" s="9"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="9"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="5"/>
+      <c r="E88" s="9"/>
       <c r="F88" s="3"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
@@ -3877,16 +3778,16 @@
       <c r="O88" s="3"/>
     </row>
     <row r="89" spans="1:15">
-      <c r="A89" s="5"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="5"/>
+      <c r="A89" s="9"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="9"/>
       <c r="D89" s="3"/>
-      <c r="E89" s="5"/>
+      <c r="E89" s="9"/>
       <c r="F89" s="3"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
@@ -3894,16 +3795,16 @@
       <c r="O89" s="3"/>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="5"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="5"/>
+      <c r="A90" s="9"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="9"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="5"/>
+      <c r="E90" s="9"/>
       <c r="F90" s="3"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
@@ -3911,16 +3812,16 @@
       <c r="O90" s="3"/>
     </row>
     <row r="91" spans="1:15">
-      <c r="A91" s="5"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="5"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="9"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="5"/>
+      <c r="E91" s="9"/>
       <c r="F91" s="3"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
@@ -3928,16 +3829,16 @@
       <c r="O91" s="3"/>
     </row>
     <row r="92" spans="1:15">
-      <c r="A92" s="5"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="5"/>
+      <c r="A92" s="9"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="9"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="5"/>
+      <c r="E92" s="9"/>
       <c r="F92" s="3"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
@@ -3945,16 +3846,16 @@
       <c r="O92" s="3"/>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="5"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="5"/>
+      <c r="A93" s="9"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="9"/>
       <c r="D93" s="3"/>
-      <c r="E93" s="5"/>
+      <c r="E93" s="9"/>
       <c r="F93" s="3"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
@@ -3962,16 +3863,16 @@
       <c r="O93" s="3"/>
     </row>
     <row r="94" spans="1:15">
-      <c r="A94" s="5"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="5"/>
+      <c r="A94" s="9"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="9"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="5"/>
+      <c r="E94" s="9"/>
       <c r="F94" s="3"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
@@ -3979,16 +3880,16 @@
       <c r="O94" s="3"/>
     </row>
     <row r="95" spans="1:15">
-      <c r="A95" s="5"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="5"/>
+      <c r="A95" s="9"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="9"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="5"/>
+      <c r="E95" s="9"/>
       <c r="F95" s="3"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
@@ -3996,16 +3897,16 @@
       <c r="O95" s="3"/>
     </row>
     <row r="96" spans="1:15">
-      <c r="A96" s="5"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="5"/>
+      <c r="A96" s="9"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="9"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="5"/>
+      <c r="E96" s="9"/>
       <c r="F96" s="3"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
@@ -4013,16 +3914,16 @@
       <c r="O96" s="3"/>
     </row>
     <row r="97" spans="1:15">
-      <c r="A97" s="5"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="5"/>
+      <c r="A97" s="9"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="9"/>
       <c r="D97" s="3"/>
-      <c r="E97" s="5"/>
+      <c r="E97" s="9"/>
       <c r="F97" s="3"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
@@ -4030,16 +3931,16 @@
       <c r="O97" s="3"/>
     </row>
     <row r="98" spans="1:15">
-      <c r="A98" s="5"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="5"/>
+      <c r="A98" s="9"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="9"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="5"/>
+      <c r="E98" s="9"/>
       <c r="F98" s="3"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
@@ -4047,16 +3948,16 @@
       <c r="O98" s="3"/>
     </row>
     <row r="99" spans="1:15">
-      <c r="A99" s="5"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="5"/>
+      <c r="A99" s="9"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="9"/>
       <c r="D99" s="3"/>
-      <c r="E99" s="5"/>
+      <c r="E99" s="9"/>
       <c r="F99" s="3"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
@@ -4064,16 +3965,16 @@
       <c r="O99" s="3"/>
     </row>
     <row r="100" spans="1:15">
-      <c r="A100" s="5"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="5"/>
+      <c r="A100" s="9"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="9"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="5"/>
+      <c r="E100" s="9"/>
       <c r="F100" s="3"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
@@ -4081,16 +3982,16 @@
       <c r="O100" s="3"/>
     </row>
     <row r="101" spans="1:15">
-      <c r="A101" s="5"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="5"/>
+      <c r="A101" s="9"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="9"/>
       <c r="D101" s="3"/>
-      <c r="E101" s="5"/>
+      <c r="E101" s="9"/>
       <c r="F101" s="3"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
@@ -4098,16 +3999,16 @@
       <c r="O101" s="3"/>
     </row>
     <row r="102" spans="1:15">
-      <c r="A102" s="5"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="5"/>
+      <c r="A102" s="9"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="9"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="5"/>
+      <c r="E102" s="9"/>
       <c r="F102" s="3"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
@@ -4115,16 +4016,16 @@
       <c r="O102" s="3"/>
     </row>
     <row r="103" spans="1:15">
-      <c r="A103" s="5"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="5"/>
+      <c r="A103" s="9"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="9"/>
       <c r="D103" s="3"/>
-      <c r="E103" s="5"/>
+      <c r="E103" s="9"/>
       <c r="F103" s="3"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
@@ -4132,16 +4033,16 @@
       <c r="O103" s="3"/>
     </row>
     <row r="104" spans="1:15">
-      <c r="A104" s="5"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="5"/>
+      <c r="A104" s="9"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="9"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="5"/>
+      <c r="E104" s="9"/>
       <c r="F104" s="3"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
@@ -4149,16 +4050,16 @@
       <c r="O104" s="3"/>
     </row>
     <row r="105" spans="1:15">
-      <c r="A105" s="5"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="5"/>
+      <c r="A105" s="9"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="9"/>
       <c r="D105" s="3"/>
-      <c r="E105" s="5"/>
+      <c r="E105" s="9"/>
       <c r="F105" s="3"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
@@ -4166,16 +4067,16 @@
       <c r="O105" s="3"/>
     </row>
     <row r="106" spans="1:15">
-      <c r="A106" s="5"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="5"/>
+      <c r="A106" s="9"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="9"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="5"/>
+      <c r="E106" s="9"/>
       <c r="F106" s="3"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
@@ -4183,16 +4084,16 @@
       <c r="O106" s="3"/>
     </row>
     <row r="107" spans="1:15">
-      <c r="A107" s="5"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="5"/>
+      <c r="A107" s="9"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="9"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="5"/>
+      <c r="E107" s="9"/>
       <c r="F107" s="3"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
@@ -4200,16 +4101,16 @@
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15">
-      <c r="A108" s="5"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5"/>
+      <c r="A108" s="9"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="9"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="5"/>
+      <c r="E108" s="9"/>
       <c r="F108" s="3"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
@@ -4217,16 +4118,16 @@
       <c r="O108" s="3"/>
     </row>
     <row r="109" spans="1:15">
-      <c r="A109" s="5"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="5"/>
+      <c r="A109" s="9"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="9"/>
       <c r="D109" s="3"/>
-      <c r="E109" s="5"/>
+      <c r="E109" s="9"/>
       <c r="F109" s="3"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
@@ -4234,16 +4135,16 @@
       <c r="O109" s="3"/>
     </row>
     <row r="110" spans="1:15">
-      <c r="A110" s="5"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="5"/>
+      <c r="A110" s="9"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="9"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="5"/>
+      <c r="E110" s="9"/>
       <c r="F110" s="3"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
@@ -4251,16 +4152,16 @@
       <c r="O110" s="3"/>
     </row>
     <row r="111" spans="1:15">
-      <c r="A111" s="5"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="5"/>
+      <c r="A111" s="9"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="9"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="5"/>
+      <c r="E111" s="9"/>
       <c r="F111" s="3"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
@@ -4268,16 +4169,16 @@
       <c r="O111" s="3"/>
     </row>
     <row r="112" spans="1:15">
-      <c r="A112" s="5"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="5"/>
+      <c r="A112" s="9"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="9"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="5"/>
+      <c r="E112" s="9"/>
       <c r="F112" s="3"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
@@ -4285,16 +4186,16 @@
       <c r="O112" s="3"/>
     </row>
     <row r="113" spans="1:15">
-      <c r="A113" s="5"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="5"/>
+      <c r="A113" s="9"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="9"/>
       <c r="D113" s="3"/>
-      <c r="E113" s="5"/>
+      <c r="E113" s="9"/>
       <c r="F113" s="3"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
@@ -4302,16 +4203,16 @@
       <c r="O113" s="3"/>
     </row>
     <row r="114" spans="1:15">
-      <c r="A114" s="5"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="5"/>
+      <c r="A114" s="9"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="9"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="5"/>
+      <c r="E114" s="9"/>
       <c r="F114" s="3"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
@@ -4319,16 +4220,16 @@
       <c r="O114" s="3"/>
     </row>
     <row r="115" spans="1:15">
-      <c r="A115" s="5"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="5"/>
+      <c r="A115" s="9"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="9"/>
       <c r="D115" s="3"/>
-      <c r="E115" s="5"/>
+      <c r="E115" s="9"/>
       <c r="F115" s="3"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
@@ -4336,16 +4237,16 @@
       <c r="O115" s="3"/>
     </row>
     <row r="116" spans="1:15">
-      <c r="A116" s="5"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="5"/>
+      <c r="A116" s="9"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="9"/>
       <c r="D116" s="3"/>
-      <c r="E116" s="5"/>
+      <c r="E116" s="9"/>
       <c r="F116" s="3"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
@@ -4353,16 +4254,16 @@
       <c r="O116" s="3"/>
     </row>
     <row r="117" spans="1:15">
-      <c r="A117" s="5"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="5"/>
+      <c r="A117" s="9"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="9"/>
       <c r="D117" s="3"/>
-      <c r="E117" s="5"/>
+      <c r="E117" s="9"/>
       <c r="F117" s="3"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
@@ -4370,16 +4271,16 @@
       <c r="O117" s="3"/>
     </row>
     <row r="118" spans="1:15">
-      <c r="A118" s="5"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="5"/>
+      <c r="A118" s="9"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="9"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="5"/>
+      <c r="E118" s="9"/>
       <c r="F118" s="3"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
@@ -4387,16 +4288,16 @@
       <c r="O118" s="3"/>
     </row>
     <row r="119" spans="1:15">
-      <c r="A119" s="5"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="5"/>
+      <c r="A119" s="9"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="9"/>
       <c r="D119" s="3"/>
-      <c r="E119" s="5"/>
+      <c r="E119" s="9"/>
       <c r="F119" s="3"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
@@ -4404,16 +4305,16 @@
       <c r="O119" s="3"/>
     </row>
     <row r="120" spans="1:15">
-      <c r="A120" s="5"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="5"/>
+      <c r="A120" s="9"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="9"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="5"/>
+      <c r="E120" s="9"/>
       <c r="F120" s="3"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
@@ -4421,16 +4322,16 @@
       <c r="O120" s="3"/>
     </row>
     <row r="121" spans="1:15">
-      <c r="A121" s="5"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="5"/>
+      <c r="A121" s="9"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="9"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="5"/>
+      <c r="E121" s="9"/>
       <c r="F121" s="3"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-      <c r="J121" s="5"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
@@ -4438,16 +4339,16 @@
       <c r="O121" s="3"/>
     </row>
     <row r="122" spans="1:15">
-      <c r="A122" s="5"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="5"/>
+      <c r="A122" s="9"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="9"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="5"/>
+      <c r="E122" s="9"/>
       <c r="F122" s="3"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
-      <c r="J122" s="5"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
@@ -4455,16 +4356,16 @@
       <c r="O122" s="3"/>
     </row>
     <row r="123" spans="1:15">
-      <c r="A123" s="5"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="5"/>
+      <c r="A123" s="9"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="9"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="5"/>
+      <c r="E123" s="9"/>
       <c r="F123" s="3"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
@@ -4472,16 +4373,16 @@
       <c r="O123" s="3"/>
     </row>
     <row r="124" spans="1:15">
-      <c r="A124" s="5"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="5"/>
+      <c r="A124" s="9"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="9"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="5"/>
+      <c r="E124" s="9"/>
       <c r="F124" s="3"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
-      <c r="J124" s="5"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
@@ -4489,16 +4390,16 @@
       <c r="O124" s="3"/>
     </row>
     <row r="125" spans="1:15">
-      <c r="A125" s="5"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="5"/>
+      <c r="A125" s="9"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="9"/>
       <c r="D125" s="3"/>
-      <c r="E125" s="5"/>
+      <c r="E125" s="9"/>
       <c r="F125" s="3"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="5"/>
-      <c r="J125" s="5"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
@@ -4506,16 +4407,16 @@
       <c r="O125" s="3"/>
     </row>
     <row r="126" spans="1:15">
-      <c r="A126" s="5"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="5"/>
+      <c r="A126" s="9"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="9"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="5"/>
+      <c r="E126" s="9"/>
       <c r="F126" s="3"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="5"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
@@ -4523,16 +4424,16 @@
       <c r="O126" s="3"/>
     </row>
     <row r="127" spans="1:15">
-      <c r="A127" s="5"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="5"/>
+      <c r="A127" s="9"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="9"/>
       <c r="D127" s="3"/>
-      <c r="E127" s="5"/>
+      <c r="E127" s="9"/>
       <c r="F127" s="3"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
-      <c r="J127" s="5"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
@@ -4540,16 +4441,16 @@
       <c r="O127" s="3"/>
     </row>
     <row r="128" spans="1:15">
-      <c r="A128" s="5"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="5"/>
+      <c r="A128" s="9"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="9"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="5"/>
+      <c r="E128" s="9"/>
       <c r="F128" s="3"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-      <c r="J128" s="5"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
@@ -4557,16 +4458,16 @@
       <c r="O128" s="3"/>
     </row>
     <row r="129" spans="1:15">
-      <c r="A129" s="5"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="5"/>
+      <c r="A129" s="9"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="9"/>
       <c r="D129" s="3"/>
-      <c r="E129" s="5"/>
+      <c r="E129" s="9"/>
       <c r="F129" s="3"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
-      <c r="J129" s="5"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
@@ -4574,16 +4475,16 @@
       <c r="O129" s="3"/>
     </row>
     <row r="130" spans="1:15">
-      <c r="A130" s="5"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="5"/>
+      <c r="A130" s="9"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="9"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="5"/>
+      <c r="E130" s="9"/>
       <c r="F130" s="3"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
@@ -4591,16 +4492,16 @@
       <c r="O130" s="3"/>
     </row>
     <row r="131" spans="1:15">
-      <c r="A131" s="5"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="5"/>
+      <c r="A131" s="9"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="9"/>
       <c r="D131" s="3"/>
-      <c r="E131" s="5"/>
+      <c r="E131" s="9"/>
       <c r="F131" s="3"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
-      <c r="I131" s="5"/>
-      <c r="J131" s="5"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
@@ -4608,16 +4509,16 @@
       <c r="O131" s="3"/>
     </row>
     <row r="132" spans="1:15">
-      <c r="A132" s="5"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="5"/>
+      <c r="A132" s="9"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="9"/>
       <c r="D132" s="3"/>
-      <c r="E132" s="5"/>
+      <c r="E132" s="9"/>
       <c r="F132" s="3"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
-      <c r="J132" s="5"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
@@ -4625,16 +4526,16 @@
       <c r="O132" s="3"/>
     </row>
     <row r="133" spans="1:15">
-      <c r="A133" s="5"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="5"/>
+      <c r="A133" s="9"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="9"/>
       <c r="D133" s="3"/>
-      <c r="E133" s="5"/>
+      <c r="E133" s="9"/>
       <c r="F133" s="3"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
-      <c r="I133" s="5"/>
-      <c r="J133" s="5"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
@@ -4642,16 +4543,16 @@
       <c r="O133" s="3"/>
     </row>
     <row r="134" spans="1:15">
-      <c r="A134" s="5"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5"/>
+      <c r="A134" s="9"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="9"/>
       <c r="D134" s="3"/>
-      <c r="E134" s="5"/>
+      <c r="E134" s="9"/>
       <c r="F134" s="3"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="5"/>
-      <c r="J134" s="5"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
@@ -4659,16 +4560,16 @@
       <c r="O134" s="3"/>
     </row>
     <row r="135" spans="1:15">
-      <c r="A135" s="5"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="5"/>
+      <c r="A135" s="9"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="9"/>
       <c r="D135" s="3"/>
-      <c r="E135" s="5"/>
+      <c r="E135" s="9"/>
       <c r="F135" s="3"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
@@ -4676,16 +4577,16 @@
       <c r="O135" s="3"/>
     </row>
     <row r="136" spans="1:15">
-      <c r="A136" s="5"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="5"/>
+      <c r="A136" s="9"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="9"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="5"/>
+      <c r="E136" s="9"/>
       <c r="F136" s="3"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5"/>
-      <c r="J136" s="5"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
@@ -4693,16 +4594,16 @@
       <c r="O136" s="3"/>
     </row>
     <row r="137" spans="1:15">
-      <c r="A137" s="5"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="5"/>
+      <c r="A137" s="9"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="9"/>
       <c r="D137" s="3"/>
-      <c r="E137" s="5"/>
+      <c r="E137" s="9"/>
       <c r="F137" s="3"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
@@ -4710,16 +4611,16 @@
       <c r="O137" s="3"/>
     </row>
     <row r="138" spans="1:15">
-      <c r="A138" s="5"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="5"/>
+      <c r="A138" s="9"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="9"/>
       <c r="D138" s="3"/>
-      <c r="E138" s="5"/>
+      <c r="E138" s="9"/>
       <c r="F138" s="3"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5"/>
-      <c r="J138" s="5"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
@@ -4727,16 +4628,16 @@
       <c r="O138" s="3"/>
     </row>
     <row r="139" spans="1:15">
-      <c r="A139" s="5"/>
-      <c r="B139" s="6"/>
-      <c r="C139" s="5"/>
+      <c r="A139" s="9"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="9"/>
       <c r="D139" s="3"/>
-      <c r="E139" s="5"/>
+      <c r="E139" s="9"/>
       <c r="F139" s="3"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="5"/>
-      <c r="J139" s="5"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
@@ -4744,16 +4645,16 @@
       <c r="O139" s="3"/>
     </row>
     <row r="140" spans="1:15">
-      <c r="A140" s="5"/>
-      <c r="B140" s="6"/>
-      <c r="C140" s="5"/>
+      <c r="A140" s="9"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="9"/>
       <c r="D140" s="3"/>
-      <c r="E140" s="5"/>
+      <c r="E140" s="9"/>
       <c r="F140" s="3"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
@@ -4761,16 +4662,16 @@
       <c r="O140" s="3"/>
     </row>
     <row r="141" spans="1:15">
-      <c r="A141" s="5"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="5"/>
+      <c r="A141" s="9"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="9"/>
       <c r="D141" s="3"/>
-      <c r="E141" s="5"/>
+      <c r="E141" s="9"/>
       <c r="F141" s="3"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
@@ -4778,16 +4679,16 @@
       <c r="O141" s="3"/>
     </row>
     <row r="142" spans="1:15">
-      <c r="A142" s="5"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="5"/>
+      <c r="A142" s="9"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="9"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="5"/>
+      <c r="E142" s="9"/>
       <c r="F142" s="3"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
@@ -4795,16 +4696,16 @@
       <c r="O142" s="3"/>
     </row>
     <row r="143" spans="1:15">
-      <c r="A143" s="5"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="5"/>
+      <c r="A143" s="9"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="9"/>
       <c r="D143" s="3"/>
-      <c r="E143" s="5"/>
+      <c r="E143" s="9"/>
       <c r="F143" s="3"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
-      <c r="I143" s="5"/>
-      <c r="J143" s="5"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
@@ -4812,16 +4713,16 @@
       <c r="O143" s="3"/>
     </row>
     <row r="144" spans="1:15">
-      <c r="A144" s="5"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="5"/>
+      <c r="A144" s="9"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="9"/>
       <c r="D144" s="3"/>
-      <c r="E144" s="5"/>
+      <c r="E144" s="9"/>
       <c r="F144" s="3"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
@@ -4829,16 +4730,16 @@
       <c r="O144" s="3"/>
     </row>
     <row r="145" spans="1:15">
-      <c r="A145" s="5"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="5"/>
+      <c r="A145" s="9"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="9"/>
       <c r="D145" s="3"/>
-      <c r="E145" s="5"/>
+      <c r="E145" s="9"/>
       <c r="F145" s="3"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
@@ -4846,16 +4747,16 @@
       <c r="O145" s="3"/>
     </row>
     <row r="146" spans="1:15">
-      <c r="A146" s="5"/>
-      <c r="B146" s="6"/>
-      <c r="C146" s="5"/>
+      <c r="A146" s="9"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="9"/>
       <c r="D146" s="3"/>
-      <c r="E146" s="5"/>
+      <c r="E146" s="9"/>
       <c r="F146" s="3"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
@@ -4863,16 +4764,16 @@
       <c r="O146" s="3"/>
     </row>
     <row r="147" spans="1:15">
-      <c r="A147" s="5"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="5"/>
+      <c r="A147" s="9"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="9"/>
       <c r="D147" s="3"/>
-      <c r="E147" s="5"/>
+      <c r="E147" s="9"/>
       <c r="F147" s="3"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
@@ -4880,16 +4781,16 @@
       <c r="O147" s="3"/>
     </row>
     <row r="148" spans="1:15">
-      <c r="A148" s="5"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="5"/>
+      <c r="A148" s="9"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="9"/>
       <c r="D148" s="3"/>
-      <c r="E148" s="5"/>
+      <c r="E148" s="9"/>
       <c r="F148" s="3"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="5"/>
-      <c r="J148" s="5"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
@@ -4897,16 +4798,16 @@
       <c r="O148" s="3"/>
     </row>
     <row r="149" spans="1:15">
-      <c r="A149" s="5"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="5"/>
+      <c r="A149" s="9"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="9"/>
       <c r="D149" s="3"/>
-      <c r="E149" s="5"/>
+      <c r="E149" s="9"/>
       <c r="F149" s="3"/>
-      <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
-      <c r="I149" s="5"/>
-      <c r="J149" s="5"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="9"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
       <c r="M149" s="3"/>
@@ -4914,16 +4815,16 @@
       <c r="O149" s="3"/>
     </row>
     <row r="150" spans="1:15">
-      <c r="A150" s="5"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="5"/>
+      <c r="A150" s="9"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="9"/>
       <c r="D150" s="3"/>
-      <c r="E150" s="5"/>
+      <c r="E150" s="9"/>
       <c r="F150" s="3"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
       <c r="M150" s="3"/>
@@ -4931,16 +4832,16 @@
       <c r="O150" s="3"/>
     </row>
     <row r="151" spans="1:15">
-      <c r="A151" s="5"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="5"/>
+      <c r="A151" s="9"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="9"/>
       <c r="D151" s="3"/>
-      <c r="E151" s="5"/>
+      <c r="E151" s="9"/>
       <c r="F151" s="3"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="5"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
@@ -4948,16 +4849,16 @@
       <c r="O151" s="3"/>
     </row>
     <row r="152" spans="1:15">
-      <c r="A152" s="5"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="5"/>
+      <c r="A152" s="9"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="9"/>
       <c r="D152" s="3"/>
-      <c r="E152" s="5"/>
+      <c r="E152" s="9"/>
       <c r="F152" s="3"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="5"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="9"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
@@ -4965,16 +4866,16 @@
       <c r="O152" s="3"/>
     </row>
     <row r="153" spans="1:15">
-      <c r="A153" s="5"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="5"/>
+      <c r="A153" s="9"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="9"/>
       <c r="D153" s="3"/>
-      <c r="E153" s="5"/>
+      <c r="E153" s="9"/>
       <c r="F153" s="3"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
-      <c r="J153" s="5"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
       <c r="M153" s="3"/>
@@ -4982,16 +4883,16 @@
       <c r="O153" s="3"/>
     </row>
     <row r="154" spans="1:15">
-      <c r="A154" s="5"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="5"/>
+      <c r="A154" s="9"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="9"/>
       <c r="D154" s="3"/>
-      <c r="E154" s="5"/>
+      <c r="E154" s="9"/>
       <c r="F154" s="3"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="5"/>
-      <c r="J154" s="5"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="9"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
       <c r="M154" s="3"/>
@@ -4999,16 +4900,16 @@
       <c r="O154" s="3"/>
     </row>
     <row r="155" spans="1:15">
-      <c r="A155" s="5"/>
-      <c r="B155" s="6"/>
-      <c r="C155" s="5"/>
+      <c r="A155" s="9"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="9"/>
       <c r="D155" s="3"/>
-      <c r="E155" s="5"/>
+      <c r="E155" s="9"/>
       <c r="F155" s="3"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="5"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
@@ -5016,16 +4917,16 @@
       <c r="O155" s="3"/>
     </row>
     <row r="156" spans="1:15">
-      <c r="A156" s="5"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="5"/>
+      <c r="A156" s="9"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="9"/>
       <c r="D156" s="3"/>
-      <c r="E156" s="5"/>
+      <c r="E156" s="9"/>
       <c r="F156" s="3"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="9"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
       <c r="M156" s="3"/>
@@ -5033,16 +4934,16 @@
       <c r="O156" s="3"/>
     </row>
     <row r="157" spans="1:15">
-      <c r="A157" s="5"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="5"/>
+      <c r="A157" s="9"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="9"/>
       <c r="D157" s="3"/>
-      <c r="E157" s="5"/>
+      <c r="E157" s="9"/>
       <c r="F157" s="3"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="5"/>
-      <c r="J157" s="5"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="9"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
       <c r="M157" s="3"/>
@@ -5050,16 +4951,16 @@
       <c r="O157" s="3"/>
     </row>
     <row r="158" spans="1:15">
-      <c r="A158" s="5"/>
-      <c r="B158" s="6"/>
-      <c r="C158" s="5"/>
+      <c r="A158" s="9"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="9"/>
       <c r="D158" s="3"/>
-      <c r="E158" s="5"/>
+      <c r="E158" s="9"/>
       <c r="F158" s="3"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
-      <c r="I158" s="5"/>
-      <c r="J158" s="5"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
       <c r="M158" s="3"/>
@@ -5067,16 +4968,16 @@
       <c r="O158" s="3"/>
     </row>
     <row r="159" spans="1:15">
-      <c r="A159" s="5"/>
-      <c r="B159" s="6"/>
-      <c r="C159" s="5"/>
+      <c r="A159" s="9"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="9"/>
       <c r="D159" s="3"/>
-      <c r="E159" s="5"/>
+      <c r="E159" s="9"/>
       <c r="F159" s="3"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="5"/>
-      <c r="J159" s="5"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="9"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
       <c r="M159" s="3"/>
@@ -5084,16 +4985,16 @@
       <c r="O159" s="3"/>
     </row>
     <row r="160" spans="1:15">
-      <c r="A160" s="5"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5"/>
+      <c r="A160" s="9"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="9"/>
       <c r="D160" s="3"/>
-      <c r="E160" s="5"/>
+      <c r="E160" s="9"/>
       <c r="F160" s="3"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
-      <c r="J160" s="5"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9"/>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
       <c r="M160" s="3"/>
@@ -5101,16 +5002,16 @@
       <c r="O160" s="3"/>
     </row>
     <row r="161" spans="1:15">
-      <c r="A161" s="5"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="5"/>
+      <c r="A161" s="9"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="9"/>
       <c r="D161" s="3"/>
-      <c r="E161" s="5"/>
+      <c r="E161" s="9"/>
       <c r="F161" s="3"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
-      <c r="I161" s="5"/>
-      <c r="J161" s="5"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9"/>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
       <c r="M161" s="3"/>
@@ -5118,16 +5019,16 @@
       <c r="O161" s="3"/>
     </row>
     <row r="162" spans="1:15">
-      <c r="A162" s="5"/>
-      <c r="B162" s="6"/>
-      <c r="C162" s="5"/>
+      <c r="A162" s="9"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="9"/>
       <c r="D162" s="3"/>
-      <c r="E162" s="5"/>
+      <c r="E162" s="9"/>
       <c r="F162" s="3"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="5"/>
-      <c r="J162" s="5"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
       <c r="M162" s="3"/>
@@ -5135,16 +5036,16 @@
       <c r="O162" s="3"/>
     </row>
     <row r="163" spans="1:15">
-      <c r="A163" s="5"/>
-      <c r="B163" s="6"/>
-      <c r="C163" s="5"/>
+      <c r="A163" s="9"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="9"/>
       <c r="D163" s="3"/>
-      <c r="E163" s="5"/>
+      <c r="E163" s="9"/>
       <c r="F163" s="3"/>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="5"/>
-      <c r="J163" s="5"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="9"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="9"/>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
       <c r="M163" s="3"/>
@@ -5152,16 +5053,16 @@
       <c r="O163" s="3"/>
     </row>
     <row r="164" spans="1:15">
-      <c r="A164" s="5"/>
-      <c r="B164" s="6"/>
-      <c r="C164" s="5"/>
+      <c r="A164" s="9"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="9"/>
       <c r="D164" s="3"/>
-      <c r="E164" s="5"/>
+      <c r="E164" s="9"/>
       <c r="F164" s="3"/>
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="5"/>
-      <c r="J164" s="5"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="9"/>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
       <c r="M164" s="3"/>
@@ -5169,16 +5070,16 @@
       <c r="O164" s="3"/>
     </row>
     <row r="165" spans="1:15">
-      <c r="A165" s="5"/>
-      <c r="B165" s="6"/>
-      <c r="C165" s="5"/>
+      <c r="A165" s="9"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="9"/>
       <c r="D165" s="3"/>
-      <c r="E165" s="5"/>
+      <c r="E165" s="9"/>
       <c r="F165" s="3"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
-      <c r="I165" s="5"/>
-      <c r="J165" s="5"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="9"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="9"/>
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
       <c r="M165" s="3"/>
@@ -5186,16 +5087,16 @@
       <c r="O165" s="3"/>
     </row>
     <row r="166" spans="1:15">
-      <c r="A166" s="5"/>
-      <c r="B166" s="6"/>
-      <c r="C166" s="5"/>
+      <c r="A166" s="9"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="9"/>
       <c r="D166" s="3"/>
-      <c r="E166" s="5"/>
+      <c r="E166" s="9"/>
       <c r="F166" s="3"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="9"/>
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
       <c r="M166" s="3"/>
@@ -5203,16 +5104,16 @@
       <c r="O166" s="3"/>
     </row>
     <row r="167" spans="1:15">
-      <c r="A167" s="5"/>
-      <c r="B167" s="6"/>
-      <c r="C167" s="5"/>
+      <c r="A167" s="9"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="9"/>
       <c r="D167" s="3"/>
-      <c r="E167" s="5"/>
+      <c r="E167" s="9"/>
       <c r="F167" s="3"/>
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
-      <c r="I167" s="5"/>
-      <c r="J167" s="5"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="9"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="9"/>
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
       <c r="M167" s="3"/>
@@ -5220,16 +5121,16 @@
       <c r="O167" s="3"/>
     </row>
     <row r="168" spans="1:15">
-      <c r="A168" s="5"/>
-      <c r="B168" s="6"/>
-      <c r="C168" s="5"/>
+      <c r="A168" s="9"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="9"/>
       <c r="D168" s="3"/>
-      <c r="E168" s="5"/>
+      <c r="E168" s="9"/>
       <c r="F168" s="3"/>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="5"/>
-      <c r="J168" s="5"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="9"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="9"/>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
       <c r="M168" s="3"/>
@@ -5237,16 +5138,16 @@
       <c r="O168" s="3"/>
     </row>
     <row r="169" spans="1:15">
-      <c r="A169" s="5"/>
-      <c r="B169" s="6"/>
-      <c r="C169" s="5"/>
+      <c r="A169" s="9"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="9"/>
       <c r="D169" s="3"/>
-      <c r="E169" s="5"/>
+      <c r="E169" s="9"/>
       <c r="F169" s="3"/>
-      <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
-      <c r="I169" s="5"/>
-      <c r="J169" s="5"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="9"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="9"/>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
@@ -5254,16 +5155,16 @@
       <c r="O169" s="3"/>
     </row>
     <row r="170" spans="1:15">
-      <c r="A170" s="5"/>
-      <c r="B170" s="6"/>
-      <c r="C170" s="5"/>
+      <c r="A170" s="9"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="9"/>
       <c r="D170" s="3"/>
-      <c r="E170" s="5"/>
+      <c r="E170" s="9"/>
       <c r="F170" s="3"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="5"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="9"/>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
@@ -5271,16 +5172,16 @@
       <c r="O170" s="3"/>
     </row>
     <row r="171" spans="1:15">
-      <c r="A171" s="5"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="5"/>
+      <c r="A171" s="9"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="9"/>
       <c r="D171" s="3"/>
-      <c r="E171" s="5"/>
+      <c r="E171" s="9"/>
       <c r="F171" s="3"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
-      <c r="J171" s="5"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="9"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="9"/>
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
@@ -5288,16 +5189,16 @@
       <c r="O171" s="3"/>
     </row>
     <row r="172" spans="1:15">
-      <c r="A172" s="5"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="5"/>
+      <c r="A172" s="9"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="9"/>
       <c r="D172" s="3"/>
-      <c r="E172" s="5"/>
+      <c r="E172" s="9"/>
       <c r="F172" s="3"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="5"/>
-      <c r="J172" s="5"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="9"/>
+      <c r="I172" s="9"/>
+      <c r="J172" s="9"/>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
@@ -5305,16 +5206,16 @@
       <c r="O172" s="3"/>
     </row>
     <row r="173" spans="1:15">
-      <c r="A173" s="5"/>
-      <c r="B173" s="6"/>
-      <c r="C173" s="5"/>
+      <c r="A173" s="9"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="9"/>
       <c r="D173" s="3"/>
-      <c r="E173" s="5"/>
+      <c r="E173" s="9"/>
       <c r="F173" s="3"/>
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
-      <c r="I173" s="5"/>
-      <c r="J173" s="5"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="9"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="9"/>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
@@ -5322,16 +5223,16 @@
       <c r="O173" s="3"/>
     </row>
     <row r="174" spans="1:15">
-      <c r="A174" s="5"/>
-      <c r="B174" s="6"/>
-      <c r="C174" s="5"/>
+      <c r="A174" s="9"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="9"/>
       <c r="D174" s="3"/>
-      <c r="E174" s="5"/>
+      <c r="E174" s="9"/>
       <c r="F174" s="3"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="5"/>
-      <c r="I174" s="5"/>
-      <c r="J174" s="5"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="9"/>
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
@@ -5339,16 +5240,16 @@
       <c r="O174" s="3"/>
     </row>
     <row r="175" spans="1:15">
-      <c r="A175" s="5"/>
-      <c r="B175" s="6"/>
-      <c r="C175" s="5"/>
+      <c r="A175" s="9"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="9"/>
       <c r="D175" s="3"/>
-      <c r="E175" s="5"/>
+      <c r="E175" s="9"/>
       <c r="F175" s="3"/>
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="5"/>
-      <c r="J175" s="5"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="9"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="9"/>
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
@@ -5356,16 +5257,16 @@
       <c r="O175" s="3"/>
     </row>
     <row r="176" spans="1:15">
-      <c r="A176" s="5"/>
-      <c r="B176" s="6"/>
-      <c r="C176" s="5"/>
+      <c r="A176" s="9"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="9"/>
       <c r="D176" s="3"/>
-      <c r="E176" s="5"/>
+      <c r="E176" s="9"/>
       <c r="F176" s="3"/>
-      <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
-      <c r="I176" s="5"/>
-      <c r="J176" s="5"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
+      <c r="I176" s="9"/>
+      <c r="J176" s="9"/>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
@@ -5373,16 +5274,16 @@
       <c r="O176" s="3"/>
     </row>
     <row r="177" spans="1:15">
-      <c r="A177" s="5"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="5"/>
+      <c r="A177" s="9"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="9"/>
       <c r="D177" s="3"/>
-      <c r="E177" s="5"/>
+      <c r="E177" s="9"/>
       <c r="F177" s="3"/>
-      <c r="G177" s="5"/>
-      <c r="H177" s="5"/>
-      <c r="I177" s="5"/>
-      <c r="J177" s="5"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="9"/>
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
@@ -5390,16 +5291,16 @@
       <c r="O177" s="3"/>
     </row>
     <row r="178" spans="1:15">
-      <c r="A178" s="5"/>
-      <c r="B178" s="6"/>
-      <c r="C178" s="5"/>
+      <c r="A178" s="9"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="9"/>
       <c r="D178" s="3"/>
-      <c r="E178" s="5"/>
+      <c r="E178" s="9"/>
       <c r="F178" s="3"/>
-      <c r="G178" s="5"/>
-      <c r="H178" s="5"/>
-      <c r="I178" s="5"/>
-      <c r="J178" s="5"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="9"/>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
@@ -5407,16 +5308,16 @@
       <c r="O178" s="3"/>
     </row>
     <row r="179" spans="1:15">
-      <c r="A179" s="5"/>
-      <c r="B179" s="6"/>
-      <c r="C179" s="5"/>
+      <c r="A179" s="9"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="9"/>
       <c r="D179" s="3"/>
-      <c r="E179" s="5"/>
+      <c r="E179" s="9"/>
       <c r="F179" s="3"/>
-      <c r="G179" s="5"/>
-      <c r="H179" s="5"/>
-      <c r="I179" s="5"/>
-      <c r="J179" s="5"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="9"/>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
@@ -5424,16 +5325,16 @@
       <c r="O179" s="3"/>
     </row>
     <row r="180" spans="1:15">
-      <c r="A180" s="5"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="5"/>
+      <c r="A180" s="9"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="9"/>
       <c r="D180" s="3"/>
-      <c r="E180" s="5"/>
+      <c r="E180" s="9"/>
       <c r="F180" s="3"/>
-      <c r="G180" s="5"/>
-      <c r="H180" s="5"/>
-      <c r="I180" s="5"/>
-      <c r="J180" s="5"/>
+      <c r="G180" s="9"/>
+      <c r="H180" s="9"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="9"/>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
@@ -5441,16 +5342,16 @@
       <c r="O180" s="3"/>
     </row>
     <row r="181" spans="1:15">
-      <c r="A181" s="5"/>
-      <c r="B181" s="6"/>
-      <c r="C181" s="5"/>
+      <c r="A181" s="9"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="9"/>
       <c r="D181" s="3"/>
-      <c r="E181" s="5"/>
+      <c r="E181" s="9"/>
       <c r="F181" s="3"/>
-      <c r="G181" s="5"/>
-      <c r="H181" s="5"/>
-      <c r="I181" s="5"/>
-      <c r="J181" s="5"/>
+      <c r="G181" s="9"/>
+      <c r="H181" s="9"/>
+      <c r="I181" s="9"/>
+      <c r="J181" s="9"/>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
@@ -5458,16 +5359,16 @@
       <c r="O181" s="3"/>
     </row>
     <row r="182" spans="1:15">
-      <c r="A182" s="5"/>
-      <c r="B182" s="6"/>
-      <c r="C182" s="5"/>
+      <c r="A182" s="9"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="9"/>
       <c r="D182" s="3"/>
-      <c r="E182" s="5"/>
+      <c r="E182" s="9"/>
       <c r="F182" s="3"/>
-      <c r="G182" s="5"/>
-      <c r="H182" s="5"/>
-      <c r="I182" s="5"/>
-      <c r="J182" s="5"/>
+      <c r="G182" s="9"/>
+      <c r="H182" s="9"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="9"/>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
@@ -5475,16 +5376,16 @@
       <c r="O182" s="3"/>
     </row>
     <row r="183" spans="1:15">
-      <c r="A183" s="5"/>
-      <c r="B183" s="6"/>
-      <c r="C183" s="5"/>
+      <c r="A183" s="9"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="9"/>
       <c r="D183" s="3"/>
-      <c r="E183" s="5"/>
+      <c r="E183" s="9"/>
       <c r="F183" s="3"/>
-      <c r="G183" s="5"/>
-      <c r="H183" s="5"/>
-      <c r="I183" s="5"/>
-      <c r="J183" s="5"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="9"/>
+      <c r="I183" s="9"/>
+      <c r="J183" s="9"/>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
       <c r="M183" s="3"/>
@@ -5492,16 +5393,16 @@
       <c r="O183" s="3"/>
     </row>
     <row r="184" spans="1:15">
-      <c r="A184" s="5"/>
-      <c r="B184" s="6"/>
-      <c r="C184" s="5"/>
+      <c r="A184" s="9"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="9"/>
       <c r="D184" s="3"/>
-      <c r="E184" s="5"/>
+      <c r="E184" s="9"/>
       <c r="F184" s="3"/>
-      <c r="G184" s="5"/>
-      <c r="H184" s="5"/>
-      <c r="I184" s="5"/>
-      <c r="J184" s="5"/>
+      <c r="G184" s="9"/>
+      <c r="H184" s="9"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="9"/>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
       <c r="M184" s="3"/>
@@ -5509,16 +5410,16 @@
       <c r="O184" s="3"/>
     </row>
     <row r="185" spans="1:15">
-      <c r="A185" s="5"/>
-      <c r="B185" s="6"/>
-      <c r="C185" s="5"/>
+      <c r="A185" s="9"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="9"/>
       <c r="D185" s="3"/>
-      <c r="E185" s="5"/>
+      <c r="E185" s="9"/>
       <c r="F185" s="3"/>
-      <c r="G185" s="5"/>
-      <c r="H185" s="5"/>
-      <c r="I185" s="5"/>
-      <c r="J185" s="5"/>
+      <c r="G185" s="9"/>
+      <c r="H185" s="9"/>
+      <c r="I185" s="9"/>
+      <c r="J185" s="9"/>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
       <c r="M185" s="3"/>
@@ -5526,16 +5427,16 @@
       <c r="O185" s="3"/>
     </row>
     <row r="186" spans="1:15">
-      <c r="A186" s="5"/>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5"/>
+      <c r="A186" s="9"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="9"/>
       <c r="D186" s="3"/>
-      <c r="E186" s="5"/>
+      <c r="E186" s="9"/>
       <c r="F186" s="3"/>
-      <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
-      <c r="I186" s="5"/>
-      <c r="J186" s="5"/>
+      <c r="G186" s="9"/>
+      <c r="H186" s="9"/>
+      <c r="I186" s="9"/>
+      <c r="J186" s="9"/>
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
       <c r="M186" s="3"/>
@@ -5543,16 +5444,16 @@
       <c r="O186" s="3"/>
     </row>
     <row r="187" spans="1:15">
-      <c r="A187" s="5"/>
-      <c r="B187" s="6"/>
-      <c r="C187" s="5"/>
+      <c r="A187" s="9"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="9"/>
       <c r="D187" s="3"/>
-      <c r="E187" s="5"/>
+      <c r="E187" s="9"/>
       <c r="F187" s="3"/>
-      <c r="G187" s="5"/>
-      <c r="H187" s="5"/>
-      <c r="I187" s="5"/>
-      <c r="J187" s="5"/>
+      <c r="G187" s="9"/>
+      <c r="H187" s="9"/>
+      <c r="I187" s="9"/>
+      <c r="J187" s="9"/>
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
       <c r="M187" s="3"/>
@@ -5560,16 +5461,16 @@
       <c r="O187" s="3"/>
     </row>
     <row r="188" spans="1:15">
-      <c r="A188" s="5"/>
-      <c r="B188" s="6"/>
-      <c r="C188" s="5"/>
+      <c r="A188" s="9"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="9"/>
       <c r="D188" s="3"/>
-      <c r="E188" s="5"/>
+      <c r="E188" s="9"/>
       <c r="F188" s="3"/>
-      <c r="G188" s="5"/>
-      <c r="H188" s="5"/>
-      <c r="I188" s="5"/>
-      <c r="J188" s="5"/>
+      <c r="G188" s="9"/>
+      <c r="H188" s="9"/>
+      <c r="I188" s="9"/>
+      <c r="J188" s="9"/>
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
       <c r="M188" s="3"/>
@@ -5577,16 +5478,16 @@
       <c r="O188" s="3"/>
     </row>
     <row r="189" spans="1:15">
-      <c r="A189" s="5"/>
-      <c r="B189" s="6"/>
-      <c r="C189" s="5"/>
+      <c r="A189" s="9"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="9"/>
       <c r="D189" s="3"/>
-      <c r="E189" s="5"/>
+      <c r="E189" s="9"/>
       <c r="F189" s="3"/>
-      <c r="G189" s="5"/>
-      <c r="H189" s="5"/>
-      <c r="I189" s="5"/>
-      <c r="J189" s="5"/>
+      <c r="G189" s="9"/>
+      <c r="H189" s="9"/>
+      <c r="I189" s="9"/>
+      <c r="J189" s="9"/>
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
       <c r="M189" s="3"/>
@@ -5594,16 +5495,16 @@
       <c r="O189" s="3"/>
     </row>
     <row r="190" spans="1:15">
-      <c r="A190" s="5"/>
-      <c r="B190" s="6"/>
-      <c r="C190" s="5"/>
+      <c r="A190" s="9"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="9"/>
       <c r="D190" s="3"/>
-      <c r="E190" s="5"/>
+      <c r="E190" s="9"/>
       <c r="F190" s="3"/>
-      <c r="G190" s="5"/>
-      <c r="H190" s="5"/>
-      <c r="I190" s="5"/>
-      <c r="J190" s="5"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="9"/>
+      <c r="I190" s="9"/>
+      <c r="J190" s="9"/>
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
       <c r="M190" s="3"/>
@@ -5611,16 +5512,16 @@
       <c r="O190" s="3"/>
     </row>
     <row r="191" spans="1:15">
-      <c r="A191" s="5"/>
-      <c r="B191" s="6"/>
-      <c r="C191" s="5"/>
+      <c r="A191" s="9"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="9"/>
       <c r="D191" s="3"/>
-      <c r="E191" s="5"/>
+      <c r="E191" s="9"/>
       <c r="F191" s="3"/>
-      <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="5"/>
-      <c r="J191" s="5"/>
+      <c r="G191" s="9"/>
+      <c r="H191" s="9"/>
+      <c r="I191" s="9"/>
+      <c r="J191" s="9"/>
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
       <c r="M191" s="3"/>
@@ -5628,16 +5529,16 @@
       <c r="O191" s="3"/>
     </row>
     <row r="192" spans="1:15">
-      <c r="A192" s="5"/>
-      <c r="B192" s="6"/>
-      <c r="C192" s="5"/>
+      <c r="A192" s="9"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="9"/>
       <c r="D192" s="3"/>
-      <c r="E192" s="5"/>
+      <c r="E192" s="9"/>
       <c r="F192" s="3"/>
-      <c r="G192" s="5"/>
-      <c r="H192" s="5"/>
-      <c r="I192" s="5"/>
-      <c r="J192" s="5"/>
+      <c r="G192" s="9"/>
+      <c r="H192" s="9"/>
+      <c r="I192" s="9"/>
+      <c r="J192" s="9"/>
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
       <c r="M192" s="3"/>
@@ -5645,16 +5546,16 @@
       <c r="O192" s="3"/>
     </row>
     <row r="193" spans="1:15">
-      <c r="A193" s="5"/>
-      <c r="B193" s="6"/>
-      <c r="C193" s="5"/>
+      <c r="A193" s="9"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="9"/>
       <c r="D193" s="3"/>
-      <c r="E193" s="5"/>
+      <c r="E193" s="9"/>
       <c r="F193" s="3"/>
-      <c r="G193" s="5"/>
-      <c r="H193" s="5"/>
-      <c r="I193" s="5"/>
-      <c r="J193" s="5"/>
+      <c r="G193" s="9"/>
+      <c r="H193" s="9"/>
+      <c r="I193" s="9"/>
+      <c r="J193" s="9"/>
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
       <c r="M193" s="3"/>
@@ -5662,16 +5563,16 @@
       <c r="O193" s="3"/>
     </row>
     <row r="194" spans="1:15">
-      <c r="A194" s="5"/>
-      <c r="B194" s="6"/>
-      <c r="C194" s="5"/>
+      <c r="A194" s="9"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="9"/>
       <c r="D194" s="3"/>
-      <c r="E194" s="5"/>
+      <c r="E194" s="9"/>
       <c r="F194" s="3"/>
-      <c r="G194" s="5"/>
-      <c r="H194" s="5"/>
-      <c r="I194" s="5"/>
-      <c r="J194" s="5"/>
+      <c r="G194" s="9"/>
+      <c r="H194" s="9"/>
+      <c r="I194" s="9"/>
+      <c r="J194" s="9"/>
       <c r="K194" s="3"/>
       <c r="L194" s="3"/>
       <c r="M194" s="3"/>
@@ -5679,95 +5580,46 @@
       <c r="O194" s="3"/>
     </row>
     <row r="195" spans="1:15">
-      <c r="A195" s="5"/>
-      <c r="B195" s="6"/>
-      <c r="C195" s="5"/>
+      <c r="A195" s="9"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="9"/>
       <c r="D195" s="3"/>
-      <c r="E195" s="5"/>
+      <c r="E195" s="9"/>
       <c r="F195" s="3"/>
-      <c r="G195" s="5"/>
-      <c r="H195" s="5"/>
-      <c r="I195" s="5"/>
-      <c r="J195" s="5"/>
+      <c r="G195" s="9"/>
+      <c r="H195" s="9"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="9"/>
       <c r="K195" s="3"/>
       <c r="L195" s="3"/>
       <c r="M195" s="3"/>
       <c r="N195" s="3"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15">
-      <c r="A196" s="5"/>
-      <c r="B196" s="6"/>
-      <c r="C196" s="5"/>
-      <c r="D196" s="3"/>
-      <c r="E196" s="5"/>
-      <c r="F196" s="3"/>
-      <c r="G196" s="5"/>
-      <c r="H196" s="5"/>
-      <c r="I196" s="5"/>
-      <c r="J196" s="5"/>
-      <c r="K196" s="3"/>
-      <c r="L196" s="3"/>
-      <c r="M196" s="3"/>
-      <c r="N196" s="3"/>
-      <c r="O196" s="3"/>
-    </row>
-    <row r="197" spans="1:15">
-      <c r="A197" s="5"/>
-      <c r="B197" s="6"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="3"/>
-      <c r="E197" s="5"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="5"/>
-      <c r="H197" s="5"/>
-      <c r="I197" s="5"/>
-      <c r="J197" s="5"/>
-      <c r="K197" s="3"/>
-      <c r="L197" s="3"/>
-      <c r="M197" s="3"/>
-      <c r="N197" s="3"/>
-      <c r="O197" s="3"/>
-    </row>
-    <row r="198" spans="1:15">
-      <c r="A198" s="5"/>
-      <c r="B198" s="6"/>
-      <c r="C198" s="5"/>
-      <c r="D198" s="3"/>
-      <c r="E198" s="5"/>
-      <c r="F198" s="3"/>
-      <c r="G198" s="5"/>
-      <c r="H198" s="5"/>
-      <c r="I198" s="5"/>
-      <c r="J198" s="5"/>
-      <c r="K198" s="3"/>
-      <c r="L198" s="3"/>
-      <c r="M198" s="3"/>
-      <c r="N198" s="3"/>
-      <c r="O198" s="3"/>
-    </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B198">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B5">
+      <formula1>"百度,gitee,芒果测试平台,芒果mock"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H5 I5:J5 G2:G195 H2:J4 I6:J195">
+      <formula1>"关闭,启用"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B3:B4 B6:B195">
       <formula1>"CDP,DESK,玩安卓,百度翻译,gitee,芒果测试平台,智投"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C198">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C195">
       <formula1>"开发环境,测试环境,预发环境,验收环境,仿真环境,生产环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E198">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E195">
       <formula1>"WEB,安卓,微信小程序"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G198 H2:J7 I8:J198">
-      <formula1>"关闭,启用"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" display="http://localhost:8000/"/>
-    <hyperlink ref="F6" r:id="rId2" display="https://gitee.com/"/>
-    <hyperlink ref="F5" r:id="rId3" display="https://fanyi-api.baidu.com/"/>
-    <hyperlink ref="F4" r:id="rId4" display="https://wanandroid.com/"/>
-    <hyperlink ref="F3" r:id="rId4" display="https://wanandroid.com/"/>
-    <hyperlink ref="K7" r:id="rId5" display="localhost"/>
+    <hyperlink ref="F4" r:id="rId1" display="http://localhost:8000/"/>
+    <hyperlink ref="F3" r:id="rId2" display="https://gitee.com/"/>
+    <hyperlink ref="F2" r:id="rId3" display="https://fanyi-api.baidu.com/"/>
+    <hyperlink ref="K4" r:id="rId4" display="localhost"/>
+    <hyperlink ref="F5" r:id="rId5" display="http://43.142.161.61:8003/" tooltip="http://43.142.161.61:8003/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5782,10 +5634,10 @@
   <dimension ref="A1:D199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -5798,1240 +5650,1252 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" ht="13.8" spans="1:4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8" spans="1:4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="4"/>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="4"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="4"/>
+      <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="4"/>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="4"/>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="4"/>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="4"/>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="4"/>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="4"/>
+      <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
+      <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="4"/>
+      <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="4"/>
+      <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="4"/>
+      <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="4"/>
+      <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="4"/>
+      <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="4"/>
+      <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="4"/>
+      <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="4"/>
+      <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="4"/>
+      <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="4"/>
+      <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="4"/>
+      <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="4"/>
+      <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="4"/>
+      <c r="D64" s="5"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="4"/>
+      <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="4"/>
+      <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="4"/>
+      <c r="D67" s="5"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="4"/>
+      <c r="D68" s="5"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="4"/>
+      <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="4"/>
+      <c r="D70" s="5"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="4"/>
+      <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="4"/>
+      <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="4"/>
+      <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="4"/>
+      <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="4"/>
+      <c r="D75" s="5"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="4"/>
+      <c r="D76" s="5"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="4"/>
+      <c r="D77" s="5"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="4"/>
+      <c r="D78" s="5"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
-      <c r="D79" s="4"/>
+      <c r="D79" s="5"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="4"/>
+      <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
-      <c r="D81" s="4"/>
+      <c r="D81" s="5"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="4"/>
+      <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
-      <c r="D83" s="4"/>
+      <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="4"/>
+      <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="4"/>
+      <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="4"/>
+      <c r="D86" s="5"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="4"/>
+      <c r="D87" s="5"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="4"/>
+      <c r="D88" s="5"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="4"/>
+      <c r="D89" s="5"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="4"/>
+      <c r="D90" s="5"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
-      <c r="D91" s="4"/>
+      <c r="D91" s="5"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
-      <c r="D92" s="4"/>
+      <c r="D92" s="5"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
-      <c r="D93" s="4"/>
+      <c r="D93" s="5"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="4"/>
+      <c r="D94" s="5"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
-      <c r="D95" s="4"/>
+      <c r="D95" s="5"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
-      <c r="D96" s="4"/>
+      <c r="D96" s="5"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
-      <c r="D97" s="4"/>
+      <c r="D97" s="5"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
-      <c r="D98" s="4"/>
+      <c r="D98" s="5"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="4"/>
+      <c r="D99" s="5"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="4"/>
+      <c r="D100" s="5"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="4"/>
+      <c r="D101" s="5"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="4"/>
+      <c r="D102" s="5"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
-      <c r="D103" s="4"/>
+      <c r="D103" s="5"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
-      <c r="D104" s="4"/>
+      <c r="D104" s="5"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
-      <c r="D105" s="4"/>
+      <c r="D105" s="5"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
-      <c r="D106" s="4"/>
+      <c r="D106" s="5"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
-      <c r="D107" s="4"/>
+      <c r="D107" s="5"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
-      <c r="D108" s="4"/>
+      <c r="D108" s="5"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
-      <c r="D109" s="4"/>
+      <c r="D109" s="5"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
-      <c r="D110" s="4"/>
+      <c r="D110" s="5"/>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
-      <c r="D111" s="4"/>
+      <c r="D111" s="5"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
-      <c r="D112" s="4"/>
+      <c r="D112" s="5"/>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
-      <c r="D113" s="4"/>
+      <c r="D113" s="5"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
-      <c r="D114" s="4"/>
+      <c r="D114" s="5"/>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
-      <c r="D115" s="4"/>
+      <c r="D115" s="5"/>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
-      <c r="D116" s="4"/>
+      <c r="D116" s="5"/>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
-      <c r="D117" s="4"/>
+      <c r="D117" s="5"/>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
-      <c r="D118" s="4"/>
+      <c r="D118" s="5"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
-      <c r="D119" s="4"/>
+      <c r="D119" s="5"/>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
-      <c r="D120" s="4"/>
+      <c r="D120" s="5"/>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
-      <c r="D121" s="4"/>
+      <c r="D121" s="5"/>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="4"/>
+      <c r="D122" s="5"/>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
-      <c r="D123" s="4"/>
+      <c r="D123" s="5"/>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
-      <c r="D124" s="4"/>
+      <c r="D124" s="5"/>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
-      <c r="D125" s="4"/>
+      <c r="D125" s="5"/>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
-      <c r="D126" s="4"/>
+      <c r="D126" s="5"/>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
-      <c r="D127" s="4"/>
+      <c r="D127" s="5"/>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
-      <c r="D128" s="4"/>
+      <c r="D128" s="5"/>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
-      <c r="D129" s="4"/>
+      <c r="D129" s="5"/>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
-      <c r="D130" s="4"/>
+      <c r="D130" s="5"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
-      <c r="D131" s="4"/>
+      <c r="D131" s="5"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
-      <c r="D132" s="4"/>
+      <c r="D132" s="5"/>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
-      <c r="D133" s="4"/>
+      <c r="D133" s="5"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
-      <c r="D134" s="4"/>
+      <c r="D134" s="5"/>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
-      <c r="D135" s="4"/>
+      <c r="D135" s="5"/>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
-      <c r="D136" s="4"/>
+      <c r="D136" s="5"/>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
-      <c r="D137" s="4"/>
+      <c r="D137" s="5"/>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
-      <c r="D138" s="4"/>
+      <c r="D138" s="5"/>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
-      <c r="D139" s="4"/>
+      <c r="D139" s="5"/>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
-      <c r="D140" s="4"/>
+      <c r="D140" s="5"/>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
-      <c r="D141" s="4"/>
+      <c r="D141" s="5"/>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
-      <c r="D142" s="4"/>
+      <c r="D142" s="5"/>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
-      <c r="D143" s="4"/>
+      <c r="D143" s="5"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
-      <c r="D144" s="4"/>
+      <c r="D144" s="5"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
-      <c r="D145" s="4"/>
+      <c r="D145" s="5"/>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
-      <c r="D146" s="4"/>
+      <c r="D146" s="5"/>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
-      <c r="D147" s="4"/>
+      <c r="D147" s="5"/>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
-      <c r="D148" s="4"/>
+      <c r="D148" s="5"/>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
-      <c r="D149" s="4"/>
+      <c r="D149" s="5"/>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
-      <c r="D150" s="4"/>
+      <c r="D150" s="5"/>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
-      <c r="D151" s="4"/>
+      <c r="D151" s="5"/>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
-      <c r="D152" s="4"/>
+      <c r="D152" s="5"/>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
-      <c r="D153" s="4"/>
+      <c r="D153" s="5"/>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
-      <c r="D154" s="4"/>
+      <c r="D154" s="5"/>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
-      <c r="D155" s="4"/>
+      <c r="D155" s="5"/>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
-      <c r="D156" s="4"/>
+      <c r="D156" s="5"/>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
-      <c r="D157" s="4"/>
+      <c r="D157" s="5"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
-      <c r="D158" s="4"/>
+      <c r="D158" s="5"/>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
-      <c r="D159" s="4"/>
+      <c r="D159" s="5"/>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
-      <c r="D160" s="4"/>
+      <c r="D160" s="5"/>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
-      <c r="D161" s="4"/>
+      <c r="D161" s="5"/>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
-      <c r="D162" s="4"/>
+      <c r="D162" s="5"/>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
-      <c r="D163" s="4"/>
+      <c r="D163" s="5"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
-      <c r="D164" s="4"/>
+      <c r="D164" s="5"/>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
-      <c r="D165" s="4"/>
+      <c r="D165" s="5"/>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
-      <c r="D166" s="4"/>
+      <c r="D166" s="5"/>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
-      <c r="D167" s="4"/>
+      <c r="D167" s="5"/>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
-      <c r="D168" s="4"/>
+      <c r="D168" s="5"/>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
-      <c r="D169" s="4"/>
+      <c r="D169" s="5"/>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
-      <c r="D170" s="4"/>
+      <c r="D170" s="5"/>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
-      <c r="D171" s="4"/>
+      <c r="D171" s="5"/>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
-      <c r="D172" s="4"/>
+      <c r="D172" s="5"/>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
-      <c r="D173" s="4"/>
+      <c r="D173" s="5"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
-      <c r="D174" s="4"/>
+      <c r="D174" s="5"/>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
-      <c r="D175" s="4"/>
+      <c r="D175" s="5"/>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
-      <c r="D176" s="4"/>
+      <c r="D176" s="5"/>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
-      <c r="D177" s="4"/>
+      <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
-      <c r="D178" s="4"/>
+      <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
-      <c r="D179" s="4"/>
+      <c r="D179" s="5"/>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
-      <c r="D180" s="4"/>
+      <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
-      <c r="D181" s="4"/>
+      <c r="D181" s="5"/>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
-      <c r="D182" s="4"/>
+      <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
-      <c r="D183" s="4"/>
+      <c r="D183" s="5"/>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
-      <c r="D184" s="4"/>
+      <c r="D184" s="5"/>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
-      <c r="D185" s="4"/>
+      <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
-      <c r="D186" s="4"/>
+      <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
-      <c r="D187" s="4"/>
+      <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
-      <c r="D188" s="4"/>
+      <c r="D188" s="5"/>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
-      <c r="D189" s="4"/>
+      <c r="D189" s="5"/>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
-      <c r="D190" s="4"/>
+      <c r="D190" s="5"/>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
-      <c r="D191" s="4"/>
+      <c r="D191" s="5"/>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
-      <c r="D192" s="4"/>
+      <c r="D192" s="5"/>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
-      <c r="D193" s="4"/>
+      <c r="D193" s="5"/>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
-      <c r="D194" s="4"/>
+      <c r="D194" s="5"/>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
-      <c r="D195" s="4"/>
+      <c r="D195" s="5"/>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
-      <c r="D196" s="4"/>
+      <c r="D196" s="5"/>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
-      <c r="D197" s="4"/>
+      <c r="D197" s="5"/>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
-      <c r="D198" s="4"/>
+      <c r="D198" s="5"/>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
-      <c r="D199" s="4"/>
+      <c r="D199" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B199">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5">
+      <formula1>"百度,gitee,芒果测试平台,芒果mock"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B6:B199">
       <formula1>"CDP,DESK,玩安卓,百度翻译,gitee,芒果测试平台,智投"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C199">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C5 C6:C199">
       <formula1>"企微,邮箱,钉钉"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://qyapi.weixin.qq.com/cgi-bin/webhook/send?key=11491e1a-11db-4b17-8eff-dd5a4c6ccdf2"/>
-    <hyperlink ref="D2" r:id="rId2" display="[&quot;maopeng@zalldigital.com&quot;,&quot;729164035@qq.com&quot;]"/>
-    <hyperlink ref="D4" r:id="rId3" display="[&quot;729164035@qq.com&quot;]"/>
+    <hyperlink ref="D2" r:id="rId1" display="[&quot;729164035@qq.com&quot;]"/>
+    <hyperlink ref="D4" r:id="rId2" display="[&quot;729164035@qq.com&quot;]"/>
+    <hyperlink ref="D3" r:id="rId1" display="[&quot;729164035@qq.com&quot;]"/>
+    <hyperlink ref="D5" r:id="rId2" display="[&quot;729164036@qq.com&quot;]"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/sources/excel/项目基础信息.xlsx
+++ b/sources/excel/项目基础信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13380"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目信息" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -43,10 +43,7 @@
     <t>百度</t>
   </si>
   <si>
-    <t>gitee</t>
-  </si>
-  <si>
-    <t>芒果测试平台</t>
+    <t>sql巡检</t>
   </si>
   <si>
     <t>项目名称</t>
@@ -97,67 +94,13 @@
     <t>WEB</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9.75"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://fanyi-api.baidu.com/</t>
-    </r>
-  </si>
-  <si>
-    <t>关闭</t>
+    <t>https://www.baidu.com/</t>
   </si>
   <si>
     <t>启用</t>
   </si>
   <si>
-    <t>gitee生产环境</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9.75"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>https://gitee.com/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9.75"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>http://localhost:8000/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9.75"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>localhost</t>
-    </r>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>mango-server</t>
+    <t>关闭</t>
   </si>
   <si>
     <t>芒果mock生产环境</t>
@@ -176,6 +119,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>[</t>
     </r>
     <r>
@@ -226,36 +176,6 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>729164035@qq.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>["</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9.75"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>729164036@qq.com</t>
     </r>
     <r>
@@ -278,7 +198,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -292,6 +212,13 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -820,31 +747,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -853,119 +777,122 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -984,9 +911,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -995,6 +919,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1319,11 +1249,11 @@
   </sheetPr>
   <dimension ref="A1:B196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="B5 D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -1338,7 +1268,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1346,7 +1276,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1354,7 +1284,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1362,775 +1292,771 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="8"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="9"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="9"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="9"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="9"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="9"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="9"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="9"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="9"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="9"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="9"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="9"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="9"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="9"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="9"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="9"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="9"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="9"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="9"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="9"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="9"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="9"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="9"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="9"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="9"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="9"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="9"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="9"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="9"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="3"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="9"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="9"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="9"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="9"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="9"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="3"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="9"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="9"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="3"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="9"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="9"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="9"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="9"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="9"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="3"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="9"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="3"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="9"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="3"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="9"/>
+      <c r="A57" s="8"/>
       <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="9"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="3"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="9"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="3"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="9"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="3"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="9"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="3"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="9"/>
+      <c r="A62" s="8"/>
       <c r="B62" s="3"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="9"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="3"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="9"/>
+      <c r="A64" s="8"/>
       <c r="B64" s="3"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="9"/>
+      <c r="A65" s="8"/>
       <c r="B65" s="3"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="9"/>
+      <c r="A66" s="8"/>
       <c r="B66" s="3"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="9"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="3"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="9"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="3"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="9"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="3"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="9"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="3"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="9"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="3"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="9"/>
+      <c r="A72" s="8"/>
       <c r="B72" s="3"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="9"/>
+      <c r="A73" s="8"/>
       <c r="B73" s="3"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="9"/>
+      <c r="A74" s="8"/>
       <c r="B74" s="3"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="9"/>
+      <c r="A75" s="8"/>
       <c r="B75" s="3"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="9"/>
+      <c r="A76" s="8"/>
       <c r="B76" s="3"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="9"/>
+      <c r="A77" s="8"/>
       <c r="B77" s="3"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="9"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="3"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="9"/>
+      <c r="A79" s="8"/>
       <c r="B79" s="3"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="9"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="3"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="9"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="3"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="9"/>
+      <c r="A82" s="8"/>
       <c r="B82" s="3"/>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="9"/>
+      <c r="A83" s="8"/>
       <c r="B83" s="3"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="9"/>
+      <c r="A84" s="8"/>
       <c r="B84" s="3"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="9"/>
+      <c r="A85" s="8"/>
       <c r="B85" s="3"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="9"/>
+      <c r="A86" s="8"/>
       <c r="B86" s="3"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="9"/>
+      <c r="A87" s="8"/>
       <c r="B87" s="3"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="9"/>
+      <c r="A88" s="8"/>
       <c r="B88" s="3"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="9"/>
+      <c r="A89" s="8"/>
       <c r="B89" s="3"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="9"/>
+      <c r="A90" s="8"/>
       <c r="B90" s="3"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="9"/>
+      <c r="A91" s="8"/>
       <c r="B91" s="3"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="9"/>
+      <c r="A92" s="8"/>
       <c r="B92" s="3"/>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="9"/>
+      <c r="A93" s="8"/>
       <c r="B93" s="3"/>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="9"/>
+      <c r="A94" s="8"/>
       <c r="B94" s="3"/>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="9"/>
+      <c r="A95" s="8"/>
       <c r="B95" s="3"/>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="9"/>
+      <c r="A96" s="8"/>
       <c r="B96" s="3"/>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="9"/>
+      <c r="A97" s="8"/>
       <c r="B97" s="3"/>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="9"/>
+      <c r="A98" s="8"/>
       <c r="B98" s="3"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="9"/>
+      <c r="A99" s="8"/>
       <c r="B99" s="3"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="9"/>
+      <c r="A100" s="8"/>
       <c r="B100" s="3"/>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="9"/>
+      <c r="A101" s="8"/>
       <c r="B101" s="3"/>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="9"/>
+      <c r="A102" s="8"/>
       <c r="B102" s="3"/>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="9"/>
+      <c r="A103" s="8"/>
       <c r="B103" s="3"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="9"/>
+      <c r="A104" s="8"/>
       <c r="B104" s="3"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="9"/>
+      <c r="A105" s="8"/>
       <c r="B105" s="3"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="9"/>
+      <c r="A106" s="8"/>
       <c r="B106" s="3"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="9"/>
+      <c r="A107" s="8"/>
       <c r="B107" s="3"/>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="9"/>
+      <c r="A108" s="8"/>
       <c r="B108" s="3"/>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="9"/>
+      <c r="A109" s="8"/>
       <c r="B109" s="3"/>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="9"/>
+      <c r="A110" s="8"/>
       <c r="B110" s="3"/>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="9"/>
+      <c r="A111" s="8"/>
       <c r="B111" s="3"/>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="9"/>
+      <c r="A112" s="8"/>
       <c r="B112" s="3"/>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="9"/>
+      <c r="A113" s="8"/>
       <c r="B113" s="3"/>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="9"/>
+      <c r="A114" s="8"/>
       <c r="B114" s="3"/>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="9"/>
+      <c r="A115" s="8"/>
       <c r="B115" s="3"/>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="9"/>
+      <c r="A116" s="8"/>
       <c r="B116" s="3"/>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="9"/>
+      <c r="A117" s="8"/>
       <c r="B117" s="3"/>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="9"/>
+      <c r="A118" s="8"/>
       <c r="B118" s="3"/>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="9"/>
+      <c r="A119" s="8"/>
       <c r="B119" s="3"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="9"/>
+      <c r="A120" s="8"/>
       <c r="B120" s="3"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="9"/>
+      <c r="A121" s="8"/>
       <c r="B121" s="3"/>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="9"/>
+      <c r="A122" s="8"/>
       <c r="B122" s="3"/>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="9"/>
+      <c r="A123" s="8"/>
       <c r="B123" s="3"/>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="9"/>
+      <c r="A124" s="8"/>
       <c r="B124" s="3"/>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="9"/>
+      <c r="A125" s="8"/>
       <c r="B125" s="3"/>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="9"/>
+      <c r="A126" s="8"/>
       <c r="B126" s="3"/>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="9"/>
+      <c r="A127" s="8"/>
       <c r="B127" s="3"/>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="9"/>
+      <c r="A128" s="8"/>
       <c r="B128" s="3"/>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="9"/>
+      <c r="A129" s="8"/>
       <c r="B129" s="3"/>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="9"/>
+      <c r="A130" s="8"/>
       <c r="B130" s="3"/>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="9"/>
+      <c r="A131" s="8"/>
       <c r="B131" s="3"/>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="9"/>
+      <c r="A132" s="8"/>
       <c r="B132" s="3"/>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="9"/>
+      <c r="A133" s="8"/>
       <c r="B133" s="3"/>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="9"/>
+      <c r="A134" s="8"/>
       <c r="B134" s="3"/>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="9"/>
+      <c r="A135" s="8"/>
       <c r="B135" s="3"/>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="9"/>
+      <c r="A136" s="8"/>
       <c r="B136" s="3"/>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="9"/>
+      <c r="A137" s="8"/>
       <c r="B137" s="3"/>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="9"/>
+      <c r="A138" s="8"/>
       <c r="B138" s="3"/>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="9"/>
+      <c r="A139" s="8"/>
       <c r="B139" s="3"/>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="9"/>
+      <c r="A140" s="8"/>
       <c r="B140" s="3"/>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="9"/>
+      <c r="A141" s="8"/>
       <c r="B141" s="3"/>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="9"/>
+      <c r="A142" s="8"/>
       <c r="B142" s="3"/>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="9"/>
+      <c r="A143" s="8"/>
       <c r="B143" s="3"/>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="9"/>
+      <c r="A144" s="8"/>
       <c r="B144" s="3"/>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="9"/>
+      <c r="A145" s="8"/>
       <c r="B145" s="3"/>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="9"/>
+      <c r="A146" s="8"/>
       <c r="B146" s="3"/>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="9"/>
+      <c r="A147" s="8"/>
       <c r="B147" s="3"/>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="9"/>
+      <c r="A148" s="8"/>
       <c r="B148" s="3"/>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="9"/>
+      <c r="A149" s="8"/>
       <c r="B149" s="3"/>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="9"/>
+      <c r="A150" s="8"/>
       <c r="B150" s="3"/>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="9"/>
+      <c r="A151" s="8"/>
       <c r="B151" s="3"/>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="9"/>
+      <c r="A152" s="8"/>
       <c r="B152" s="3"/>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="9"/>
+      <c r="A153" s="8"/>
       <c r="B153" s="3"/>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="9"/>
+      <c r="A154" s="8"/>
       <c r="B154" s="3"/>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="9"/>
+      <c r="A155" s="8"/>
       <c r="B155" s="3"/>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="9"/>
+      <c r="A156" s="8"/>
       <c r="B156" s="3"/>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="9"/>
+      <c r="A157" s="8"/>
       <c r="B157" s="3"/>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="9"/>
+      <c r="A158" s="8"/>
       <c r="B158" s="3"/>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="9"/>
+      <c r="A159" s="8"/>
       <c r="B159" s="3"/>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="9"/>
+      <c r="A160" s="8"/>
       <c r="B160" s="3"/>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="9"/>
+      <c r="A161" s="8"/>
       <c r="B161" s="3"/>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="9"/>
+      <c r="A162" s="8"/>
       <c r="B162" s="3"/>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="9"/>
+      <c r="A163" s="8"/>
       <c r="B163" s="3"/>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="9"/>
+      <c r="A164" s="8"/>
       <c r="B164" s="3"/>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="9"/>
+      <c r="A165" s="8"/>
       <c r="B165" s="3"/>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="9"/>
+      <c r="A166" s="8"/>
       <c r="B166" s="3"/>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="9"/>
+      <c r="A167" s="8"/>
       <c r="B167" s="3"/>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="9"/>
+      <c r="A168" s="8"/>
       <c r="B168" s="3"/>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="9"/>
+      <c r="A169" s="8"/>
       <c r="B169" s="3"/>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="9"/>
+      <c r="A170" s="8"/>
       <c r="B170" s="3"/>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="9"/>
+      <c r="A171" s="8"/>
       <c r="B171" s="3"/>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="9"/>
+      <c r="A172" s="8"/>
       <c r="B172" s="3"/>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="9"/>
+      <c r="A173" s="8"/>
       <c r="B173" s="3"/>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="9"/>
+      <c r="A174" s="8"/>
       <c r="B174" s="3"/>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="9"/>
+      <c r="A175" s="8"/>
       <c r="B175" s="3"/>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="9"/>
+      <c r="A176" s="8"/>
       <c r="B176" s="3"/>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="9"/>
+      <c r="A177" s="8"/>
       <c r="B177" s="3"/>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="9"/>
+      <c r="A178" s="8"/>
       <c r="B178" s="3"/>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="9"/>
+      <c r="A179" s="8"/>
       <c r="B179" s="3"/>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="9"/>
+      <c r="A180" s="8"/>
       <c r="B180" s="3"/>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="9"/>
+      <c r="A181" s="8"/>
       <c r="B181" s="3"/>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="9"/>
+      <c r="A182" s="8"/>
       <c r="B182" s="3"/>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="9"/>
+      <c r="A183" s="8"/>
       <c r="B183" s="3"/>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="9"/>
+      <c r="A184" s="8"/>
       <c r="B184" s="3"/>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="9"/>
+      <c r="A185" s="8"/>
       <c r="B185" s="3"/>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="9"/>
+      <c r="A186" s="8"/>
       <c r="B186" s="3"/>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="9"/>
+      <c r="A187" s="8"/>
       <c r="B187" s="3"/>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="9"/>
+      <c r="A188" s="8"/>
       <c r="B188" s="3"/>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="9"/>
+      <c r="A189" s="8"/>
       <c r="B189" s="3"/>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="9"/>
+      <c r="A190" s="8"/>
       <c r="B190" s="3"/>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="9"/>
+      <c r="A191" s="8"/>
       <c r="B191" s="3"/>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="9"/>
+      <c r="A192" s="8"/>
       <c r="B192" s="3"/>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="9"/>
+      <c r="A193" s="8"/>
       <c r="B193" s="3"/>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="9"/>
+      <c r="A194" s="8"/>
       <c r="B194" s="3"/>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195" s="9"/>
+      <c r="A195" s="8"/>
       <c r="B195" s="3"/>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="9"/>
+      <c r="A196" s="8"/>
       <c r="B196" s="3"/>
     </row>
   </sheetData>
@@ -2144,13 +2070,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O195"/>
+  <dimension ref="A1:O193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -2166,77 +2092,77 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="3"/>
@@ -2246,34 +2172,34 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>21</v>
+      <c r="G3" s="8" t="s">
+        <v>22</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>26</v>
+      <c r="H3" s="8" t="s">
+        <v>22</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="3"/>
@@ -2283,83 +2209,33 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="3">
-        <v>3306</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="3">
-        <v>123456</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A4" s="8"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="A5" s="8"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -2367,16 +2243,16 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="9"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="9"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -2384,16 +2260,16 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="9"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -2401,16 +2277,16 @@
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="9"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="9"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -2418,16 +2294,16 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="9"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="9"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -2435,16 +2311,16 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="9"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="9"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -2452,16 +2328,16 @@
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="9"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="9"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -2469,16 +2345,16 @@
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="9"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="9"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -2486,16 +2362,16 @@
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="9"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="9"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="9"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -2503,16 +2379,16 @@
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="9"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="9"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -2520,16 +2396,16 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="9"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="9"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -2537,16 +2413,16 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="9"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="9"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="9"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -2554,16 +2430,16 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="9"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="9"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -2571,16 +2447,16 @@
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="9"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="9"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="9"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -2588,16 +2464,16 @@
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="9"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="9"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -2605,16 +2481,16 @@
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="9"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="9"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -2622,16 +2498,16 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="9"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="9"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="9"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -2639,16 +2515,16 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="9"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="9"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="9"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -2656,16 +2532,16 @@
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="9"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="9"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="9"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -2673,16 +2549,16 @@
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="9"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="9"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="9"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -2690,16 +2566,16 @@
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="9"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="9"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="9"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -2707,16 +2583,16 @@
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="9"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="9"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="9"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -2724,16 +2600,16 @@
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="9"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="9"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="9"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -2741,16 +2617,16 @@
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="9"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="9"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="9"/>
+      <c r="E28" s="8"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -2758,16 +2634,16 @@
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="9"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="9"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="9"/>
+      <c r="E29" s="8"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -2775,16 +2651,16 @@
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="9"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="9"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="9"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -2792,16 +2668,16 @@
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="9"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="9"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="9"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -2809,16 +2685,16 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="9"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="9"/>
+      <c r="C32" s="8"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="9"/>
+      <c r="E32" s="8"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -2826,16 +2702,16 @@
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="9"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="9"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="9"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -2843,16 +2719,16 @@
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="9"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="9"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="9"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -2860,16 +2736,16 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="9"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="9"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="9"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -2877,16 +2753,16 @@
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="9"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="9"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="9"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -2894,16 +2770,16 @@
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="9"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="9"/>
+      <c r="C37" s="8"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="9"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -2911,16 +2787,16 @@
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="9"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="9"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="9"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -2928,16 +2804,16 @@
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="9"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="9"/>
+      <c r="C39" s="8"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="9"/>
+      <c r="E39" s="8"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -2945,16 +2821,16 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="9"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="9"/>
+      <c r="C40" s="8"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="9"/>
+      <c r="E40" s="8"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -2962,16 +2838,16 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="9"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="9"/>
+      <c r="C41" s="8"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="9"/>
+      <c r="E41" s="8"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -2979,16 +2855,16 @@
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="9"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="9"/>
+      <c r="C42" s="8"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="9"/>
+      <c r="E42" s="8"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -2996,16 +2872,16 @@
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="9"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="9"/>
+      <c r="C43" s="8"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="9"/>
+      <c r="E43" s="8"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -3013,16 +2889,16 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="9"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="9"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="9"/>
+      <c r="E44" s="8"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -3030,16 +2906,16 @@
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="9"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="9"/>
+      <c r="C45" s="8"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="9"/>
+      <c r="E45" s="8"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -3047,16 +2923,16 @@
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="9"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="9"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="9"/>
+      <c r="E46" s="8"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -3064,16 +2940,16 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="9"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="9"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="9"/>
+      <c r="E47" s="8"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -3081,16 +2957,16 @@
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="9"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="9"/>
+      <c r="C48" s="8"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="9"/>
+      <c r="E48" s="8"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -3098,16 +2974,16 @@
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="9"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="9"/>
+      <c r="C49" s="8"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="9"/>
+      <c r="E49" s="8"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -3115,16 +2991,16 @@
       <c r="O49" s="3"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="9"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="9"/>
+      <c r="C50" s="8"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="9"/>
+      <c r="E50" s="8"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -3132,16 +3008,16 @@
       <c r="O50" s="3"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="9"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="9"/>
+      <c r="C51" s="8"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="9"/>
+      <c r="E51" s="8"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -3149,16 +3025,16 @@
       <c r="O51" s="3"/>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="9"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="9"/>
+      <c r="C52" s="8"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="9"/>
+      <c r="E52" s="8"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -3166,16 +3042,16 @@
       <c r="O52" s="3"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="9"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="9"/>
+      <c r="C53" s="8"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="9"/>
+      <c r="E53" s="8"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -3183,16 +3059,16 @@
       <c r="O53" s="3"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="9"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="9"/>
+      <c r="C54" s="8"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="9"/>
+      <c r="E54" s="8"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -3200,16 +3076,16 @@
       <c r="O54" s="3"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="9"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="9"/>
+      <c r="C55" s="8"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="9"/>
+      <c r="E55" s="8"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -3217,16 +3093,16 @@
       <c r="O55" s="3"/>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="9"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="9"/>
+      <c r="C56" s="8"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="9"/>
+      <c r="E56" s="8"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
@@ -3234,16 +3110,16 @@
       <c r="O56" s="3"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="9"/>
+      <c r="A57" s="8"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="9"/>
+      <c r="C57" s="8"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="9"/>
+      <c r="E57" s="8"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
@@ -3251,16 +3127,16 @@
       <c r="O57" s="3"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="9"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="9"/>
+      <c r="C58" s="8"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="9"/>
+      <c r="E58" s="8"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
@@ -3268,16 +3144,16 @@
       <c r="O58" s="3"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="9"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="9"/>
+      <c r="C59" s="8"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="9"/>
+      <c r="E59" s="8"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -3285,16 +3161,16 @@
       <c r="O59" s="3"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="9"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="9"/>
+      <c r="C60" s="8"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="9"/>
+      <c r="E60" s="8"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -3302,16 +3178,16 @@
       <c r="O60" s="3"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="9"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="9"/>
+      <c r="C61" s="8"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="9"/>
+      <c r="E61" s="8"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -3319,16 +3195,16 @@
       <c r="O61" s="3"/>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="9"/>
+      <c r="A62" s="8"/>
       <c r="B62" s="4"/>
-      <c r="C62" s="9"/>
+      <c r="C62" s="8"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="9"/>
+      <c r="E62" s="8"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -3336,16 +3212,16 @@
       <c r="O62" s="3"/>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="9"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="4"/>
-      <c r="C63" s="9"/>
+      <c r="C63" s="8"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="9"/>
+      <c r="E63" s="8"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
@@ -3353,16 +3229,16 @@
       <c r="O63" s="3"/>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="9"/>
+      <c r="A64" s="8"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="9"/>
+      <c r="C64" s="8"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="9"/>
+      <c r="E64" s="8"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
@@ -3370,16 +3246,16 @@
       <c r="O64" s="3"/>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="9"/>
+      <c r="A65" s="8"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="9"/>
+      <c r="C65" s="8"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="9"/>
+      <c r="E65" s="8"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
@@ -3387,16 +3263,16 @@
       <c r="O65" s="3"/>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="9"/>
+      <c r="A66" s="8"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="9"/>
+      <c r="C66" s="8"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="9"/>
+      <c r="E66" s="8"/>
       <c r="F66" s="3"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
@@ -3404,16 +3280,16 @@
       <c r="O66" s="3"/>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="9"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="9"/>
+      <c r="C67" s="8"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="9"/>
+      <c r="E67" s="8"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
@@ -3421,16 +3297,16 @@
       <c r="O67" s="3"/>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="9"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="9"/>
+      <c r="C68" s="8"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="9"/>
+      <c r="E68" s="8"/>
       <c r="F68" s="3"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -3438,16 +3314,16 @@
       <c r="O68" s="3"/>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="9"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="9"/>
+      <c r="C69" s="8"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="9"/>
+      <c r="E69" s="8"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
@@ -3455,16 +3331,16 @@
       <c r="O69" s="3"/>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="9"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="9"/>
+      <c r="C70" s="8"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="9"/>
+      <c r="E70" s="8"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
@@ -3472,16 +3348,16 @@
       <c r="O70" s="3"/>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="9"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="9"/>
+      <c r="C71" s="8"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="9"/>
+      <c r="E71" s="8"/>
       <c r="F71" s="3"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
@@ -3489,16 +3365,16 @@
       <c r="O71" s="3"/>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="9"/>
+      <c r="A72" s="8"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="9"/>
+      <c r="C72" s="8"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="9"/>
+      <c r="E72" s="8"/>
       <c r="F72" s="3"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
@@ -3506,16 +3382,16 @@
       <c r="O72" s="3"/>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="9"/>
+      <c r="A73" s="8"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="9"/>
+      <c r="C73" s="8"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="9"/>
+      <c r="E73" s="8"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
@@ -3523,16 +3399,16 @@
       <c r="O73" s="3"/>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="9"/>
+      <c r="A74" s="8"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="9"/>
+      <c r="C74" s="8"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="9"/>
+      <c r="E74" s="8"/>
       <c r="F74" s="3"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
@@ -3540,16 +3416,16 @@
       <c r="O74" s="3"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="9"/>
+      <c r="A75" s="8"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="9"/>
+      <c r="C75" s="8"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="9"/>
+      <c r="E75" s="8"/>
       <c r="F75" s="3"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
@@ -3557,16 +3433,16 @@
       <c r="O75" s="3"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="9"/>
+      <c r="A76" s="8"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="9"/>
+      <c r="C76" s="8"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="9"/>
+      <c r="E76" s="8"/>
       <c r="F76" s="3"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
@@ -3574,16 +3450,16 @@
       <c r="O76" s="3"/>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="9"/>
+      <c r="A77" s="8"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="9"/>
+      <c r="C77" s="8"/>
       <c r="D77" s="3"/>
-      <c r="E77" s="9"/>
+      <c r="E77" s="8"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
@@ -3591,16 +3467,16 @@
       <c r="O77" s="3"/>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="9"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="9"/>
+      <c r="C78" s="8"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="9"/>
+      <c r="E78" s="8"/>
       <c r="F78" s="3"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
@@ -3608,16 +3484,16 @@
       <c r="O78" s="3"/>
     </row>
     <row r="79" spans="1:15">
-      <c r="A79" s="9"/>
+      <c r="A79" s="8"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="9"/>
+      <c r="C79" s="8"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="9"/>
+      <c r="E79" s="8"/>
       <c r="F79" s="3"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
@@ -3625,16 +3501,16 @@
       <c r="O79" s="3"/>
     </row>
     <row r="80" spans="1:15">
-      <c r="A80" s="9"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="9"/>
+      <c r="C80" s="8"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="9"/>
+      <c r="E80" s="8"/>
       <c r="F80" s="3"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
@@ -3642,16 +3518,16 @@
       <c r="O80" s="3"/>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="9"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="9"/>
+      <c r="C81" s="8"/>
       <c r="D81" s="3"/>
-      <c r="E81" s="9"/>
+      <c r="E81" s="8"/>
       <c r="F81" s="3"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
@@ -3659,16 +3535,16 @@
       <c r="O81" s="3"/>
     </row>
     <row r="82" spans="1:15">
-      <c r="A82" s="9"/>
+      <c r="A82" s="8"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="9"/>
+      <c r="C82" s="8"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="9"/>
+      <c r="E82" s="8"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
@@ -3676,16 +3552,16 @@
       <c r="O82" s="3"/>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="9"/>
+      <c r="A83" s="8"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="9"/>
+      <c r="C83" s="8"/>
       <c r="D83" s="3"/>
-      <c r="E83" s="9"/>
+      <c r="E83" s="8"/>
       <c r="F83" s="3"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
@@ -3693,16 +3569,16 @@
       <c r="O83" s="3"/>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" s="9"/>
+      <c r="A84" s="8"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="9"/>
+      <c r="C84" s="8"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="9"/>
+      <c r="E84" s="8"/>
       <c r="F84" s="3"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
@@ -3710,16 +3586,16 @@
       <c r="O84" s="3"/>
     </row>
     <row r="85" spans="1:15">
-      <c r="A85" s="9"/>
+      <c r="A85" s="8"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="9"/>
+      <c r="C85" s="8"/>
       <c r="D85" s="3"/>
-      <c r="E85" s="9"/>
+      <c r="E85" s="8"/>
       <c r="F85" s="3"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
@@ -3727,16 +3603,16 @@
       <c r="O85" s="3"/>
     </row>
     <row r="86" spans="1:15">
-      <c r="A86" s="9"/>
+      <c r="A86" s="8"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="9"/>
+      <c r="C86" s="8"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="9"/>
+      <c r="E86" s="8"/>
       <c r="F86" s="3"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
@@ -3744,16 +3620,16 @@
       <c r="O86" s="3"/>
     </row>
     <row r="87" spans="1:15">
-      <c r="A87" s="9"/>
+      <c r="A87" s="8"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="9"/>
+      <c r="C87" s="8"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="9"/>
+      <c r="E87" s="8"/>
       <c r="F87" s="3"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
@@ -3761,16 +3637,16 @@
       <c r="O87" s="3"/>
     </row>
     <row r="88" spans="1:15">
-      <c r="A88" s="9"/>
+      <c r="A88" s="8"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="9"/>
+      <c r="C88" s="8"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="9"/>
+      <c r="E88" s="8"/>
       <c r="F88" s="3"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
@@ -3778,16 +3654,16 @@
       <c r="O88" s="3"/>
     </row>
     <row r="89" spans="1:15">
-      <c r="A89" s="9"/>
+      <c r="A89" s="8"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="9"/>
+      <c r="C89" s="8"/>
       <c r="D89" s="3"/>
-      <c r="E89" s="9"/>
+      <c r="E89" s="8"/>
       <c r="F89" s="3"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
@@ -3795,16 +3671,16 @@
       <c r="O89" s="3"/>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="9"/>
+      <c r="A90" s="8"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="9"/>
+      <c r="C90" s="8"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="9"/>
+      <c r="E90" s="8"/>
       <c r="F90" s="3"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
@@ -3812,16 +3688,16 @@
       <c r="O90" s="3"/>
     </row>
     <row r="91" spans="1:15">
-      <c r="A91" s="9"/>
+      <c r="A91" s="8"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="9"/>
+      <c r="C91" s="8"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="9"/>
+      <c r="E91" s="8"/>
       <c r="F91" s="3"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
@@ -3829,16 +3705,16 @@
       <c r="O91" s="3"/>
     </row>
     <row r="92" spans="1:15">
-      <c r="A92" s="9"/>
+      <c r="A92" s="8"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="9"/>
+      <c r="C92" s="8"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="9"/>
+      <c r="E92" s="8"/>
       <c r="F92" s="3"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
@@ -3846,16 +3722,16 @@
       <c r="O92" s="3"/>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="9"/>
+      <c r="A93" s="8"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="9"/>
+      <c r="C93" s="8"/>
       <c r="D93" s="3"/>
-      <c r="E93" s="9"/>
+      <c r="E93" s="8"/>
       <c r="F93" s="3"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
@@ -3863,16 +3739,16 @@
       <c r="O93" s="3"/>
     </row>
     <row r="94" spans="1:15">
-      <c r="A94" s="9"/>
+      <c r="A94" s="8"/>
       <c r="B94" s="4"/>
-      <c r="C94" s="9"/>
+      <c r="C94" s="8"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="9"/>
+      <c r="E94" s="8"/>
       <c r="F94" s="3"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
@@ -3880,16 +3756,16 @@
       <c r="O94" s="3"/>
     </row>
     <row r="95" spans="1:15">
-      <c r="A95" s="9"/>
+      <c r="A95" s="8"/>
       <c r="B95" s="4"/>
-      <c r="C95" s="9"/>
+      <c r="C95" s="8"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="9"/>
+      <c r="E95" s="8"/>
       <c r="F95" s="3"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
@@ -3897,16 +3773,16 @@
       <c r="O95" s="3"/>
     </row>
     <row r="96" spans="1:15">
-      <c r="A96" s="9"/>
+      <c r="A96" s="8"/>
       <c r="B96" s="4"/>
-      <c r="C96" s="9"/>
+      <c r="C96" s="8"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="9"/>
+      <c r="E96" s="8"/>
       <c r="F96" s="3"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
@@ -3914,16 +3790,16 @@
       <c r="O96" s="3"/>
     </row>
     <row r="97" spans="1:15">
-      <c r="A97" s="9"/>
+      <c r="A97" s="8"/>
       <c r="B97" s="4"/>
-      <c r="C97" s="9"/>
+      <c r="C97" s="8"/>
       <c r="D97" s="3"/>
-      <c r="E97" s="9"/>
+      <c r="E97" s="8"/>
       <c r="F97" s="3"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
@@ -3931,16 +3807,16 @@
       <c r="O97" s="3"/>
     </row>
     <row r="98" spans="1:15">
-      <c r="A98" s="9"/>
+      <c r="A98" s="8"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="9"/>
+      <c r="C98" s="8"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="9"/>
+      <c r="E98" s="8"/>
       <c r="F98" s="3"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
@@ -3948,16 +3824,16 @@
       <c r="O98" s="3"/>
     </row>
     <row r="99" spans="1:15">
-      <c r="A99" s="9"/>
+      <c r="A99" s="8"/>
       <c r="B99" s="4"/>
-      <c r="C99" s="9"/>
+      <c r="C99" s="8"/>
       <c r="D99" s="3"/>
-      <c r="E99" s="9"/>
+      <c r="E99" s="8"/>
       <c r="F99" s="3"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
@@ -3965,16 +3841,16 @@
       <c r="O99" s="3"/>
     </row>
     <row r="100" spans="1:15">
-      <c r="A100" s="9"/>
+      <c r="A100" s="8"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="9"/>
+      <c r="C100" s="8"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="9"/>
+      <c r="E100" s="8"/>
       <c r="F100" s="3"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="9"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
@@ -3982,16 +3858,16 @@
       <c r="O100" s="3"/>
     </row>
     <row r="101" spans="1:15">
-      <c r="A101" s="9"/>
+      <c r="A101" s="8"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="9"/>
+      <c r="C101" s="8"/>
       <c r="D101" s="3"/>
-      <c r="E101" s="9"/>
+      <c r="E101" s="8"/>
       <c r="F101" s="3"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
-      <c r="J101" s="9"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
@@ -3999,16 +3875,16 @@
       <c r="O101" s="3"/>
     </row>
     <row r="102" spans="1:15">
-      <c r="A102" s="9"/>
+      <c r="A102" s="8"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="9"/>
+      <c r="C102" s="8"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="9"/>
+      <c r="E102" s="8"/>
       <c r="F102" s="3"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
@@ -4016,16 +3892,16 @@
       <c r="O102" s="3"/>
     </row>
     <row r="103" spans="1:15">
-      <c r="A103" s="9"/>
+      <c r="A103" s="8"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="9"/>
+      <c r="C103" s="8"/>
       <c r="D103" s="3"/>
-      <c r="E103" s="9"/>
+      <c r="E103" s="8"/>
       <c r="F103" s="3"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
-      <c r="J103" s="9"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
@@ -4033,16 +3909,16 @@
       <c r="O103" s="3"/>
     </row>
     <row r="104" spans="1:15">
-      <c r="A104" s="9"/>
+      <c r="A104" s="8"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="9"/>
+      <c r="C104" s="8"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="9"/>
+      <c r="E104" s="8"/>
       <c r="F104" s="3"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="9"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
@@ -4050,16 +3926,16 @@
       <c r="O104" s="3"/>
     </row>
     <row r="105" spans="1:15">
-      <c r="A105" s="9"/>
+      <c r="A105" s="8"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="9"/>
+      <c r="C105" s="8"/>
       <c r="D105" s="3"/>
-      <c r="E105" s="9"/>
+      <c r="E105" s="8"/>
       <c r="F105" s="3"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
@@ -4067,16 +3943,16 @@
       <c r="O105" s="3"/>
     </row>
     <row r="106" spans="1:15">
-      <c r="A106" s="9"/>
+      <c r="A106" s="8"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="9"/>
+      <c r="C106" s="8"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="9"/>
+      <c r="E106" s="8"/>
       <c r="F106" s="3"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
@@ -4084,16 +3960,16 @@
       <c r="O106" s="3"/>
     </row>
     <row r="107" spans="1:15">
-      <c r="A107" s="9"/>
+      <c r="A107" s="8"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="9"/>
+      <c r="C107" s="8"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="9"/>
+      <c r="E107" s="8"/>
       <c r="F107" s="3"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
@@ -4101,16 +3977,16 @@
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="1:15">
-      <c r="A108" s="9"/>
+      <c r="A108" s="8"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="9"/>
+      <c r="C108" s="8"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="9"/>
+      <c r="E108" s="8"/>
       <c r="F108" s="3"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="9"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
@@ -4118,16 +3994,16 @@
       <c r="O108" s="3"/>
     </row>
     <row r="109" spans="1:15">
-      <c r="A109" s="9"/>
+      <c r="A109" s="8"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="9"/>
+      <c r="C109" s="8"/>
       <c r="D109" s="3"/>
-      <c r="E109" s="9"/>
+      <c r="E109" s="8"/>
       <c r="F109" s="3"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="9"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
@@ -4135,16 +4011,16 @@
       <c r="O109" s="3"/>
     </row>
     <row r="110" spans="1:15">
-      <c r="A110" s="9"/>
+      <c r="A110" s="8"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="9"/>
+      <c r="C110" s="8"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="9"/>
+      <c r="E110" s="8"/>
       <c r="F110" s="3"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="9"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
@@ -4152,16 +4028,16 @@
       <c r="O110" s="3"/>
     </row>
     <row r="111" spans="1:15">
-      <c r="A111" s="9"/>
+      <c r="A111" s="8"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="9"/>
+      <c r="C111" s="8"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="9"/>
+      <c r="E111" s="8"/>
       <c r="F111" s="3"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
@@ -4169,16 +4045,16 @@
       <c r="O111" s="3"/>
     </row>
     <row r="112" spans="1:15">
-      <c r="A112" s="9"/>
+      <c r="A112" s="8"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="9"/>
+      <c r="C112" s="8"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="9"/>
+      <c r="E112" s="8"/>
       <c r="F112" s="3"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="9"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
@@ -4186,16 +4062,16 @@
       <c r="O112" s="3"/>
     </row>
     <row r="113" spans="1:15">
-      <c r="A113" s="9"/>
+      <c r="A113" s="8"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="9"/>
+      <c r="C113" s="8"/>
       <c r="D113" s="3"/>
-      <c r="E113" s="9"/>
+      <c r="E113" s="8"/>
       <c r="F113" s="3"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="9"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
@@ -4203,16 +4079,16 @@
       <c r="O113" s="3"/>
     </row>
     <row r="114" spans="1:15">
-      <c r="A114" s="9"/>
+      <c r="A114" s="8"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="9"/>
+      <c r="C114" s="8"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="9"/>
+      <c r="E114" s="8"/>
       <c r="F114" s="3"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
@@ -4220,16 +4096,16 @@
       <c r="O114" s="3"/>
     </row>
     <row r="115" spans="1:15">
-      <c r="A115" s="9"/>
+      <c r="A115" s="8"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="9"/>
+      <c r="C115" s="8"/>
       <c r="D115" s="3"/>
-      <c r="E115" s="9"/>
+      <c r="E115" s="8"/>
       <c r="F115" s="3"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
@@ -4237,16 +4113,16 @@
       <c r="O115" s="3"/>
     </row>
     <row r="116" spans="1:15">
-      <c r="A116" s="9"/>
+      <c r="A116" s="8"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="9"/>
+      <c r="C116" s="8"/>
       <c r="D116" s="3"/>
-      <c r="E116" s="9"/>
+      <c r="E116" s="8"/>
       <c r="F116" s="3"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="9"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
@@ -4254,16 +4130,16 @@
       <c r="O116" s="3"/>
     </row>
     <row r="117" spans="1:15">
-      <c r="A117" s="9"/>
+      <c r="A117" s="8"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="9"/>
+      <c r="C117" s="8"/>
       <c r="D117" s="3"/>
-      <c r="E117" s="9"/>
+      <c r="E117" s="8"/>
       <c r="F117" s="3"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="9"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
@@ -4271,16 +4147,16 @@
       <c r="O117" s="3"/>
     </row>
     <row r="118" spans="1:15">
-      <c r="A118" s="9"/>
+      <c r="A118" s="8"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="9"/>
+      <c r="C118" s="8"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="9"/>
+      <c r="E118" s="8"/>
       <c r="F118" s="3"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="9"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
@@ -4288,16 +4164,16 @@
       <c r="O118" s="3"/>
     </row>
     <row r="119" spans="1:15">
-      <c r="A119" s="9"/>
+      <c r="A119" s="8"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="9"/>
+      <c r="C119" s="8"/>
       <c r="D119" s="3"/>
-      <c r="E119" s="9"/>
+      <c r="E119" s="8"/>
       <c r="F119" s="3"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9"/>
-      <c r="J119" s="9"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
@@ -4305,16 +4181,16 @@
       <c r="O119" s="3"/>
     </row>
     <row r="120" spans="1:15">
-      <c r="A120" s="9"/>
+      <c r="A120" s="8"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="9"/>
+      <c r="C120" s="8"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="9"/>
+      <c r="E120" s="8"/>
       <c r="F120" s="3"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="9"/>
-      <c r="J120" s="9"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
@@ -4322,16 +4198,16 @@
       <c r="O120" s="3"/>
     </row>
     <row r="121" spans="1:15">
-      <c r="A121" s="9"/>
+      <c r="A121" s="8"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="9"/>
+      <c r="C121" s="8"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="9"/>
+      <c r="E121" s="8"/>
       <c r="F121" s="3"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="9"/>
-      <c r="J121" s="9"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
@@ -4339,16 +4215,16 @@
       <c r="O121" s="3"/>
     </row>
     <row r="122" spans="1:15">
-      <c r="A122" s="9"/>
+      <c r="A122" s="8"/>
       <c r="B122" s="4"/>
-      <c r="C122" s="9"/>
+      <c r="C122" s="8"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="9"/>
+      <c r="E122" s="8"/>
       <c r="F122" s="3"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="9"/>
-      <c r="J122" s="9"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
@@ -4356,16 +4232,16 @@
       <c r="O122" s="3"/>
     </row>
     <row r="123" spans="1:15">
-      <c r="A123" s="9"/>
+      <c r="A123" s="8"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="9"/>
+      <c r="C123" s="8"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="9"/>
+      <c r="E123" s="8"/>
       <c r="F123" s="3"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="9"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
@@ -4373,16 +4249,16 @@
       <c r="O123" s="3"/>
     </row>
     <row r="124" spans="1:15">
-      <c r="A124" s="9"/>
+      <c r="A124" s="8"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="9"/>
+      <c r="C124" s="8"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="9"/>
+      <c r="E124" s="8"/>
       <c r="F124" s="3"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
@@ -4390,16 +4266,16 @@
       <c r="O124" s="3"/>
     </row>
     <row r="125" spans="1:15">
-      <c r="A125" s="9"/>
+      <c r="A125" s="8"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="9"/>
+      <c r="C125" s="8"/>
       <c r="D125" s="3"/>
-      <c r="E125" s="9"/>
+      <c r="E125" s="8"/>
       <c r="F125" s="3"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="9"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
@@ -4407,16 +4283,16 @@
       <c r="O125" s="3"/>
     </row>
     <row r="126" spans="1:15">
-      <c r="A126" s="9"/>
+      <c r="A126" s="8"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="9"/>
+      <c r="C126" s="8"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="9"/>
+      <c r="E126" s="8"/>
       <c r="F126" s="3"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="9"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
@@ -4424,16 +4300,16 @@
       <c r="O126" s="3"/>
     </row>
     <row r="127" spans="1:15">
-      <c r="A127" s="9"/>
+      <c r="A127" s="8"/>
       <c r="B127" s="4"/>
-      <c r="C127" s="9"/>
+      <c r="C127" s="8"/>
       <c r="D127" s="3"/>
-      <c r="E127" s="9"/>
+      <c r="E127" s="8"/>
       <c r="F127" s="3"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="9"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
@@ -4441,16 +4317,16 @@
       <c r="O127" s="3"/>
     </row>
     <row r="128" spans="1:15">
-      <c r="A128" s="9"/>
+      <c r="A128" s="8"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="9"/>
+      <c r="C128" s="8"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="9"/>
+      <c r="E128" s="8"/>
       <c r="F128" s="3"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="9"/>
-      <c r="J128" s="9"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
@@ -4458,16 +4334,16 @@
       <c r="O128" s="3"/>
     </row>
     <row r="129" spans="1:15">
-      <c r="A129" s="9"/>
+      <c r="A129" s="8"/>
       <c r="B129" s="4"/>
-      <c r="C129" s="9"/>
+      <c r="C129" s="8"/>
       <c r="D129" s="3"/>
-      <c r="E129" s="9"/>
+      <c r="E129" s="8"/>
       <c r="F129" s="3"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="9"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
@@ -4475,16 +4351,16 @@
       <c r="O129" s="3"/>
     </row>
     <row r="130" spans="1:15">
-      <c r="A130" s="9"/>
+      <c r="A130" s="8"/>
       <c r="B130" s="4"/>
-      <c r="C130" s="9"/>
+      <c r="C130" s="8"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="9"/>
+      <c r="E130" s="8"/>
       <c r="F130" s="3"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="9"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
+      <c r="J130" s="8"/>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
@@ -4492,16 +4368,16 @@
       <c r="O130" s="3"/>
     </row>
     <row r="131" spans="1:15">
-      <c r="A131" s="9"/>
+      <c r="A131" s="8"/>
       <c r="B131" s="4"/>
-      <c r="C131" s="9"/>
+      <c r="C131" s="8"/>
       <c r="D131" s="3"/>
-      <c r="E131" s="9"/>
+      <c r="E131" s="8"/>
       <c r="F131" s="3"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="9"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
@@ -4509,16 +4385,16 @@
       <c r="O131" s="3"/>
     </row>
     <row r="132" spans="1:15">
-      <c r="A132" s="9"/>
+      <c r="A132" s="8"/>
       <c r="B132" s="4"/>
-      <c r="C132" s="9"/>
+      <c r="C132" s="8"/>
       <c r="D132" s="3"/>
-      <c r="E132" s="9"/>
+      <c r="E132" s="8"/>
       <c r="F132" s="3"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="9"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
@@ -4526,16 +4402,16 @@
       <c r="O132" s="3"/>
     </row>
     <row r="133" spans="1:15">
-      <c r="A133" s="9"/>
+      <c r="A133" s="8"/>
       <c r="B133" s="4"/>
-      <c r="C133" s="9"/>
+      <c r="C133" s="8"/>
       <c r="D133" s="3"/>
-      <c r="E133" s="9"/>
+      <c r="E133" s="8"/>
       <c r="F133" s="3"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="9"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
@@ -4543,16 +4419,16 @@
       <c r="O133" s="3"/>
     </row>
     <row r="134" spans="1:15">
-      <c r="A134" s="9"/>
+      <c r="A134" s="8"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="9"/>
+      <c r="C134" s="8"/>
       <c r="D134" s="3"/>
-      <c r="E134" s="9"/>
+      <c r="E134" s="8"/>
       <c r="F134" s="3"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="9"/>
-      <c r="J134" s="9"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
@@ -4560,16 +4436,16 @@
       <c r="O134" s="3"/>
     </row>
     <row r="135" spans="1:15">
-      <c r="A135" s="9"/>
+      <c r="A135" s="8"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="9"/>
+      <c r="C135" s="8"/>
       <c r="D135" s="3"/>
-      <c r="E135" s="9"/>
+      <c r="E135" s="8"/>
       <c r="F135" s="3"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="9"/>
-      <c r="I135" s="9"/>
-      <c r="J135" s="9"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
@@ -4577,16 +4453,16 @@
       <c r="O135" s="3"/>
     </row>
     <row r="136" spans="1:15">
-      <c r="A136" s="9"/>
+      <c r="A136" s="8"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="9"/>
+      <c r="C136" s="8"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="9"/>
+      <c r="E136" s="8"/>
       <c r="F136" s="3"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
-      <c r="I136" s="9"/>
-      <c r="J136" s="9"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
@@ -4594,16 +4470,16 @@
       <c r="O136" s="3"/>
     </row>
     <row r="137" spans="1:15">
-      <c r="A137" s="9"/>
+      <c r="A137" s="8"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="9"/>
+      <c r="C137" s="8"/>
       <c r="D137" s="3"/>
-      <c r="E137" s="9"/>
+      <c r="E137" s="8"/>
       <c r="F137" s="3"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="9"/>
-      <c r="J137" s="9"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
@@ -4611,16 +4487,16 @@
       <c r="O137" s="3"/>
     </row>
     <row r="138" spans="1:15">
-      <c r="A138" s="9"/>
+      <c r="A138" s="8"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="9"/>
+      <c r="C138" s="8"/>
       <c r="D138" s="3"/>
-      <c r="E138" s="9"/>
+      <c r="E138" s="8"/>
       <c r="F138" s="3"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="9"/>
-      <c r="I138" s="9"/>
-      <c r="J138" s="9"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
@@ -4628,16 +4504,16 @@
       <c r="O138" s="3"/>
     </row>
     <row r="139" spans="1:15">
-      <c r="A139" s="9"/>
+      <c r="A139" s="8"/>
       <c r="B139" s="4"/>
-      <c r="C139" s="9"/>
+      <c r="C139" s="8"/>
       <c r="D139" s="3"/>
-      <c r="E139" s="9"/>
+      <c r="E139" s="8"/>
       <c r="F139" s="3"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9"/>
-      <c r="I139" s="9"/>
-      <c r="J139" s="9"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
+      <c r="J139" s="8"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
@@ -4645,16 +4521,16 @@
       <c r="O139" s="3"/>
     </row>
     <row r="140" spans="1:15">
-      <c r="A140" s="9"/>
+      <c r="A140" s="8"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="9"/>
+      <c r="C140" s="8"/>
       <c r="D140" s="3"/>
-      <c r="E140" s="9"/>
+      <c r="E140" s="8"/>
       <c r="F140" s="3"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="9"/>
-      <c r="I140" s="9"/>
-      <c r="J140" s="9"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
@@ -4662,16 +4538,16 @@
       <c r="O140" s="3"/>
     </row>
     <row r="141" spans="1:15">
-      <c r="A141" s="9"/>
+      <c r="A141" s="8"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="9"/>
+      <c r="C141" s="8"/>
       <c r="D141" s="3"/>
-      <c r="E141" s="9"/>
+      <c r="E141" s="8"/>
       <c r="F141" s="3"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="9"/>
-      <c r="I141" s="9"/>
-      <c r="J141" s="9"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
@@ -4679,16 +4555,16 @@
       <c r="O141" s="3"/>
     </row>
     <row r="142" spans="1:15">
-      <c r="A142" s="9"/>
+      <c r="A142" s="8"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="9"/>
+      <c r="C142" s="8"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="9"/>
+      <c r="E142" s="8"/>
       <c r="F142" s="3"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="9"/>
-      <c r="J142" s="9"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
+      <c r="J142" s="8"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
@@ -4696,16 +4572,16 @@
       <c r="O142" s="3"/>
     </row>
     <row r="143" spans="1:15">
-      <c r="A143" s="9"/>
+      <c r="A143" s="8"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="9"/>
+      <c r="C143" s="8"/>
       <c r="D143" s="3"/>
-      <c r="E143" s="9"/>
+      <c r="E143" s="8"/>
       <c r="F143" s="3"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="9"/>
-      <c r="I143" s="9"/>
-      <c r="J143" s="9"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
@@ -4713,16 +4589,16 @@
       <c r="O143" s="3"/>
     </row>
     <row r="144" spans="1:15">
-      <c r="A144" s="9"/>
+      <c r="A144" s="8"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="9"/>
+      <c r="C144" s="8"/>
       <c r="D144" s="3"/>
-      <c r="E144" s="9"/>
+      <c r="E144" s="8"/>
       <c r="F144" s="3"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="9"/>
-      <c r="I144" s="9"/>
-      <c r="J144" s="9"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
+      <c r="J144" s="8"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
@@ -4730,16 +4606,16 @@
       <c r="O144" s="3"/>
     </row>
     <row r="145" spans="1:15">
-      <c r="A145" s="9"/>
+      <c r="A145" s="8"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="9"/>
+      <c r="C145" s="8"/>
       <c r="D145" s="3"/>
-      <c r="E145" s="9"/>
+      <c r="E145" s="8"/>
       <c r="F145" s="3"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
-      <c r="I145" s="9"/>
-      <c r="J145" s="9"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
@@ -4747,16 +4623,16 @@
       <c r="O145" s="3"/>
     </row>
     <row r="146" spans="1:15">
-      <c r="A146" s="9"/>
+      <c r="A146" s="8"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="9"/>
+      <c r="C146" s="8"/>
       <c r="D146" s="3"/>
-      <c r="E146" s="9"/>
+      <c r="E146" s="8"/>
       <c r="F146" s="3"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="9"/>
-      <c r="I146" s="9"/>
-      <c r="J146" s="9"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
@@ -4764,16 +4640,16 @@
       <c r="O146" s="3"/>
     </row>
     <row r="147" spans="1:15">
-      <c r="A147" s="9"/>
+      <c r="A147" s="8"/>
       <c r="B147" s="4"/>
-      <c r="C147" s="9"/>
+      <c r="C147" s="8"/>
       <c r="D147" s="3"/>
-      <c r="E147" s="9"/>
+      <c r="E147" s="8"/>
       <c r="F147" s="3"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="9"/>
-      <c r="I147" s="9"/>
-      <c r="J147" s="9"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
@@ -4781,16 +4657,16 @@
       <c r="O147" s="3"/>
     </row>
     <row r="148" spans="1:15">
-      <c r="A148" s="9"/>
+      <c r="A148" s="8"/>
       <c r="B148" s="4"/>
-      <c r="C148" s="9"/>
+      <c r="C148" s="8"/>
       <c r="D148" s="3"/>
-      <c r="E148" s="9"/>
+      <c r="E148" s="8"/>
       <c r="F148" s="3"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="9"/>
-      <c r="I148" s="9"/>
-      <c r="J148" s="9"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
@@ -4798,16 +4674,16 @@
       <c r="O148" s="3"/>
     </row>
     <row r="149" spans="1:15">
-      <c r="A149" s="9"/>
+      <c r="A149" s="8"/>
       <c r="B149" s="4"/>
-      <c r="C149" s="9"/>
+      <c r="C149" s="8"/>
       <c r="D149" s="3"/>
-      <c r="E149" s="9"/>
+      <c r="E149" s="8"/>
       <c r="F149" s="3"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="9"/>
-      <c r="I149" s="9"/>
-      <c r="J149" s="9"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
       <c r="M149" s="3"/>
@@ -4815,16 +4691,16 @@
       <c r="O149" s="3"/>
     </row>
     <row r="150" spans="1:15">
-      <c r="A150" s="9"/>
+      <c r="A150" s="8"/>
       <c r="B150" s="4"/>
-      <c r="C150" s="9"/>
+      <c r="C150" s="8"/>
       <c r="D150" s="3"/>
-      <c r="E150" s="9"/>
+      <c r="E150" s="8"/>
       <c r="F150" s="3"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="9"/>
-      <c r="I150" s="9"/>
-      <c r="J150" s="9"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="8"/>
+      <c r="J150" s="8"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
       <c r="M150" s="3"/>
@@ -4832,16 +4708,16 @@
       <c r="O150" s="3"/>
     </row>
     <row r="151" spans="1:15">
-      <c r="A151" s="9"/>
+      <c r="A151" s="8"/>
       <c r="B151" s="4"/>
-      <c r="C151" s="9"/>
+      <c r="C151" s="8"/>
       <c r="D151" s="3"/>
-      <c r="E151" s="9"/>
+      <c r="E151" s="8"/>
       <c r="F151" s="3"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="9"/>
-      <c r="I151" s="9"/>
-      <c r="J151" s="9"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
+      <c r="J151" s="8"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
@@ -4849,16 +4725,16 @@
       <c r="O151" s="3"/>
     </row>
     <row r="152" spans="1:15">
-      <c r="A152" s="9"/>
+      <c r="A152" s="8"/>
       <c r="B152" s="4"/>
-      <c r="C152" s="9"/>
+      <c r="C152" s="8"/>
       <c r="D152" s="3"/>
-      <c r="E152" s="9"/>
+      <c r="E152" s="8"/>
       <c r="F152" s="3"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="9"/>
-      <c r="I152" s="9"/>
-      <c r="J152" s="9"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+      <c r="J152" s="8"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
@@ -4866,16 +4742,16 @@
       <c r="O152" s="3"/>
     </row>
     <row r="153" spans="1:15">
-      <c r="A153" s="9"/>
+      <c r="A153" s="8"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="9"/>
+      <c r="C153" s="8"/>
       <c r="D153" s="3"/>
-      <c r="E153" s="9"/>
+      <c r="E153" s="8"/>
       <c r="F153" s="3"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="9"/>
-      <c r="I153" s="9"/>
-      <c r="J153" s="9"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="8"/>
+      <c r="J153" s="8"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
       <c r="M153" s="3"/>
@@ -4883,16 +4759,16 @@
       <c r="O153" s="3"/>
     </row>
     <row r="154" spans="1:15">
-      <c r="A154" s="9"/>
+      <c r="A154" s="8"/>
       <c r="B154" s="4"/>
-      <c r="C154" s="9"/>
+      <c r="C154" s="8"/>
       <c r="D154" s="3"/>
-      <c r="E154" s="9"/>
+      <c r="E154" s="8"/>
       <c r="F154" s="3"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="9"/>
-      <c r="I154" s="9"/>
-      <c r="J154" s="9"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="8"/>
+      <c r="I154" s="8"/>
+      <c r="J154" s="8"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
       <c r="M154" s="3"/>
@@ -4900,16 +4776,16 @@
       <c r="O154" s="3"/>
     </row>
     <row r="155" spans="1:15">
-      <c r="A155" s="9"/>
+      <c r="A155" s="8"/>
       <c r="B155" s="4"/>
-      <c r="C155" s="9"/>
+      <c r="C155" s="8"/>
       <c r="D155" s="3"/>
-      <c r="E155" s="9"/>
+      <c r="E155" s="8"/>
       <c r="F155" s="3"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="9"/>
-      <c r="I155" s="9"/>
-      <c r="J155" s="9"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="8"/>
+      <c r="J155" s="8"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
@@ -4917,16 +4793,16 @@
       <c r="O155" s="3"/>
     </row>
     <row r="156" spans="1:15">
-      <c r="A156" s="9"/>
+      <c r="A156" s="8"/>
       <c r="B156" s="4"/>
-      <c r="C156" s="9"/>
+      <c r="C156" s="8"/>
       <c r="D156" s="3"/>
-      <c r="E156" s="9"/>
+      <c r="E156" s="8"/>
       <c r="F156" s="3"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="9"/>
-      <c r="I156" s="9"/>
-      <c r="J156" s="9"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="8"/>
+      <c r="J156" s="8"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
       <c r="M156" s="3"/>
@@ -4934,16 +4810,16 @@
       <c r="O156" s="3"/>
     </row>
     <row r="157" spans="1:15">
-      <c r="A157" s="9"/>
+      <c r="A157" s="8"/>
       <c r="B157" s="4"/>
-      <c r="C157" s="9"/>
+      <c r="C157" s="8"/>
       <c r="D157" s="3"/>
-      <c r="E157" s="9"/>
+      <c r="E157" s="8"/>
       <c r="F157" s="3"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="9"/>
-      <c r="I157" s="9"/>
-      <c r="J157" s="9"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="8"/>
+      <c r="J157" s="8"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
       <c r="M157" s="3"/>
@@ -4951,16 +4827,16 @@
       <c r="O157" s="3"/>
     </row>
     <row r="158" spans="1:15">
-      <c r="A158" s="9"/>
+      <c r="A158" s="8"/>
       <c r="B158" s="4"/>
-      <c r="C158" s="9"/>
+      <c r="C158" s="8"/>
       <c r="D158" s="3"/>
-      <c r="E158" s="9"/>
+      <c r="E158" s="8"/>
       <c r="F158" s="3"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="9"/>
-      <c r="I158" s="9"/>
-      <c r="J158" s="9"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="8"/>
+      <c r="J158" s="8"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
       <c r="M158" s="3"/>
@@ -4968,16 +4844,16 @@
       <c r="O158" s="3"/>
     </row>
     <row r="159" spans="1:15">
-      <c r="A159" s="9"/>
+      <c r="A159" s="8"/>
       <c r="B159" s="4"/>
-      <c r="C159" s="9"/>
+      <c r="C159" s="8"/>
       <c r="D159" s="3"/>
-      <c r="E159" s="9"/>
+      <c r="E159" s="8"/>
       <c r="F159" s="3"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="9"/>
-      <c r="I159" s="9"/>
-      <c r="J159" s="9"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="8"/>
+      <c r="J159" s="8"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
       <c r="M159" s="3"/>
@@ -4985,16 +4861,16 @@
       <c r="O159" s="3"/>
     </row>
     <row r="160" spans="1:15">
-      <c r="A160" s="9"/>
+      <c r="A160" s="8"/>
       <c r="B160" s="4"/>
-      <c r="C160" s="9"/>
+      <c r="C160" s="8"/>
       <c r="D160" s="3"/>
-      <c r="E160" s="9"/>
+      <c r="E160" s="8"/>
       <c r="F160" s="3"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="9"/>
-      <c r="I160" s="9"/>
-      <c r="J160" s="9"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="8"/>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
       <c r="M160" s="3"/>
@@ -5002,16 +4878,16 @@
       <c r="O160" s="3"/>
     </row>
     <row r="161" spans="1:15">
-      <c r="A161" s="9"/>
+      <c r="A161" s="8"/>
       <c r="B161" s="4"/>
-      <c r="C161" s="9"/>
+      <c r="C161" s="8"/>
       <c r="D161" s="3"/>
-      <c r="E161" s="9"/>
+      <c r="E161" s="8"/>
       <c r="F161" s="3"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="9"/>
-      <c r="I161" s="9"/>
-      <c r="J161" s="9"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="8"/>
+      <c r="J161" s="8"/>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
       <c r="M161" s="3"/>
@@ -5019,16 +4895,16 @@
       <c r="O161" s="3"/>
     </row>
     <row r="162" spans="1:15">
-      <c r="A162" s="9"/>
+      <c r="A162" s="8"/>
       <c r="B162" s="4"/>
-      <c r="C162" s="9"/>
+      <c r="C162" s="8"/>
       <c r="D162" s="3"/>
-      <c r="E162" s="9"/>
+      <c r="E162" s="8"/>
       <c r="F162" s="3"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="9"/>
-      <c r="I162" s="9"/>
-      <c r="J162" s="9"/>
+      <c r="G162" s="8"/>
+      <c r="H162" s="8"/>
+      <c r="I162" s="8"/>
+      <c r="J162" s="8"/>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
       <c r="M162" s="3"/>
@@ -5036,16 +4912,16 @@
       <c r="O162" s="3"/>
     </row>
     <row r="163" spans="1:15">
-      <c r="A163" s="9"/>
+      <c r="A163" s="8"/>
       <c r="B163" s="4"/>
-      <c r="C163" s="9"/>
+      <c r="C163" s="8"/>
       <c r="D163" s="3"/>
-      <c r="E163" s="9"/>
+      <c r="E163" s="8"/>
       <c r="F163" s="3"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="9"/>
-      <c r="I163" s="9"/>
-      <c r="J163" s="9"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="8"/>
+      <c r="J163" s="8"/>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
       <c r="M163" s="3"/>
@@ -5053,16 +4929,16 @@
       <c r="O163" s="3"/>
     </row>
     <row r="164" spans="1:15">
-      <c r="A164" s="9"/>
+      <c r="A164" s="8"/>
       <c r="B164" s="4"/>
-      <c r="C164" s="9"/>
+      <c r="C164" s="8"/>
       <c r="D164" s="3"/>
-      <c r="E164" s="9"/>
+      <c r="E164" s="8"/>
       <c r="F164" s="3"/>
-      <c r="G164" s="9"/>
-      <c r="H164" s="9"/>
-      <c r="I164" s="9"/>
-      <c r="J164" s="9"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="8"/>
+      <c r="J164" s="8"/>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
       <c r="M164" s="3"/>
@@ -5070,16 +4946,16 @@
       <c r="O164" s="3"/>
     </row>
     <row r="165" spans="1:15">
-      <c r="A165" s="9"/>
+      <c r="A165" s="8"/>
       <c r="B165" s="4"/>
-      <c r="C165" s="9"/>
+      <c r="C165" s="8"/>
       <c r="D165" s="3"/>
-      <c r="E165" s="9"/>
+      <c r="E165" s="8"/>
       <c r="F165" s="3"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="9"/>
-      <c r="I165" s="9"/>
-      <c r="J165" s="9"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="8"/>
+      <c r="J165" s="8"/>
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
       <c r="M165" s="3"/>
@@ -5087,16 +4963,16 @@
       <c r="O165" s="3"/>
     </row>
     <row r="166" spans="1:15">
-      <c r="A166" s="9"/>
+      <c r="A166" s="8"/>
       <c r="B166" s="4"/>
-      <c r="C166" s="9"/>
+      <c r="C166" s="8"/>
       <c r="D166" s="3"/>
-      <c r="E166" s="9"/>
+      <c r="E166" s="8"/>
       <c r="F166" s="3"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="9"/>
-      <c r="I166" s="9"/>
-      <c r="J166" s="9"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="8"/>
+      <c r="J166" s="8"/>
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
       <c r="M166" s="3"/>
@@ -5104,16 +4980,16 @@
       <c r="O166" s="3"/>
     </row>
     <row r="167" spans="1:15">
-      <c r="A167" s="9"/>
+      <c r="A167" s="8"/>
       <c r="B167" s="4"/>
-      <c r="C167" s="9"/>
+      <c r="C167" s="8"/>
       <c r="D167" s="3"/>
-      <c r="E167" s="9"/>
+      <c r="E167" s="8"/>
       <c r="F167" s="3"/>
-      <c r="G167" s="9"/>
-      <c r="H167" s="9"/>
-      <c r="I167" s="9"/>
-      <c r="J167" s="9"/>
+      <c r="G167" s="8"/>
+      <c r="H167" s="8"/>
+      <c r="I167" s="8"/>
+      <c r="J167" s="8"/>
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
       <c r="M167" s="3"/>
@@ -5121,16 +4997,16 @@
       <c r="O167" s="3"/>
     </row>
     <row r="168" spans="1:15">
-      <c r="A168" s="9"/>
+      <c r="A168" s="8"/>
       <c r="B168" s="4"/>
-      <c r="C168" s="9"/>
+      <c r="C168" s="8"/>
       <c r="D168" s="3"/>
-      <c r="E168" s="9"/>
+      <c r="E168" s="8"/>
       <c r="F168" s="3"/>
-      <c r="G168" s="9"/>
-      <c r="H168" s="9"/>
-      <c r="I168" s="9"/>
-      <c r="J168" s="9"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8"/>
+      <c r="J168" s="8"/>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
       <c r="M168" s="3"/>
@@ -5138,16 +5014,16 @@
       <c r="O168" s="3"/>
     </row>
     <row r="169" spans="1:15">
-      <c r="A169" s="9"/>
+      <c r="A169" s="8"/>
       <c r="B169" s="4"/>
-      <c r="C169" s="9"/>
+      <c r="C169" s="8"/>
       <c r="D169" s="3"/>
-      <c r="E169" s="9"/>
+      <c r="E169" s="8"/>
       <c r="F169" s="3"/>
-      <c r="G169" s="9"/>
-      <c r="H169" s="9"/>
-      <c r="I169" s="9"/>
-      <c r="J169" s="9"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
+      <c r="I169" s="8"/>
+      <c r="J169" s="8"/>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
@@ -5155,16 +5031,16 @@
       <c r="O169" s="3"/>
     </row>
     <row r="170" spans="1:15">
-      <c r="A170" s="9"/>
+      <c r="A170" s="8"/>
       <c r="B170" s="4"/>
-      <c r="C170" s="9"/>
+      <c r="C170" s="8"/>
       <c r="D170" s="3"/>
-      <c r="E170" s="9"/>
+      <c r="E170" s="8"/>
       <c r="F170" s="3"/>
-      <c r="G170" s="9"/>
-      <c r="H170" s="9"/>
-      <c r="I170" s="9"/>
-      <c r="J170" s="9"/>
+      <c r="G170" s="8"/>
+      <c r="H170" s="8"/>
+      <c r="I170" s="8"/>
+      <c r="J170" s="8"/>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
@@ -5172,16 +5048,16 @@
       <c r="O170" s="3"/>
     </row>
     <row r="171" spans="1:15">
-      <c r="A171" s="9"/>
+      <c r="A171" s="8"/>
       <c r="B171" s="4"/>
-      <c r="C171" s="9"/>
+      <c r="C171" s="8"/>
       <c r="D171" s="3"/>
-      <c r="E171" s="9"/>
+      <c r="E171" s="8"/>
       <c r="F171" s="3"/>
-      <c r="G171" s="9"/>
-      <c r="H171" s="9"/>
-      <c r="I171" s="9"/>
-      <c r="J171" s="9"/>
+      <c r="G171" s="8"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="8"/>
+      <c r="J171" s="8"/>
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
@@ -5189,16 +5065,16 @@
       <c r="O171" s="3"/>
     </row>
     <row r="172" spans="1:15">
-      <c r="A172" s="9"/>
+      <c r="A172" s="8"/>
       <c r="B172" s="4"/>
-      <c r="C172" s="9"/>
+      <c r="C172" s="8"/>
       <c r="D172" s="3"/>
-      <c r="E172" s="9"/>
+      <c r="E172" s="8"/>
       <c r="F172" s="3"/>
-      <c r="G172" s="9"/>
-      <c r="H172" s="9"/>
-      <c r="I172" s="9"/>
-      <c r="J172" s="9"/>
+      <c r="G172" s="8"/>
+      <c r="H172" s="8"/>
+      <c r="I172" s="8"/>
+      <c r="J172" s="8"/>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
@@ -5206,16 +5082,16 @@
       <c r="O172" s="3"/>
     </row>
     <row r="173" spans="1:15">
-      <c r="A173" s="9"/>
+      <c r="A173" s="8"/>
       <c r="B173" s="4"/>
-      <c r="C173" s="9"/>
+      <c r="C173" s="8"/>
       <c r="D173" s="3"/>
-      <c r="E173" s="9"/>
+      <c r="E173" s="8"/>
       <c r="F173" s="3"/>
-      <c r="G173" s="9"/>
-      <c r="H173" s="9"/>
-      <c r="I173" s="9"/>
-      <c r="J173" s="9"/>
+      <c r="G173" s="8"/>
+      <c r="H173" s="8"/>
+      <c r="I173" s="8"/>
+      <c r="J173" s="8"/>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
@@ -5223,16 +5099,16 @@
       <c r="O173" s="3"/>
     </row>
     <row r="174" spans="1:15">
-      <c r="A174" s="9"/>
+      <c r="A174" s="8"/>
       <c r="B174" s="4"/>
-      <c r="C174" s="9"/>
+      <c r="C174" s="8"/>
       <c r="D174" s="3"/>
-      <c r="E174" s="9"/>
+      <c r="E174" s="8"/>
       <c r="F174" s="3"/>
-      <c r="G174" s="9"/>
-      <c r="H174" s="9"/>
-      <c r="I174" s="9"/>
-      <c r="J174" s="9"/>
+      <c r="G174" s="8"/>
+      <c r="H174" s="8"/>
+      <c r="I174" s="8"/>
+      <c r="J174" s="8"/>
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
@@ -5240,16 +5116,16 @@
       <c r="O174" s="3"/>
     </row>
     <row r="175" spans="1:15">
-      <c r="A175" s="9"/>
+      <c r="A175" s="8"/>
       <c r="B175" s="4"/>
-      <c r="C175" s="9"/>
+      <c r="C175" s="8"/>
       <c r="D175" s="3"/>
-      <c r="E175" s="9"/>
+      <c r="E175" s="8"/>
       <c r="F175" s="3"/>
-      <c r="G175" s="9"/>
-      <c r="H175" s="9"/>
-      <c r="I175" s="9"/>
-      <c r="J175" s="9"/>
+      <c r="G175" s="8"/>
+      <c r="H175" s="8"/>
+      <c r="I175" s="8"/>
+      <c r="J175" s="8"/>
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
@@ -5257,16 +5133,16 @@
       <c r="O175" s="3"/>
     </row>
     <row r="176" spans="1:15">
-      <c r="A176" s="9"/>
+      <c r="A176" s="8"/>
       <c r="B176" s="4"/>
-      <c r="C176" s="9"/>
+      <c r="C176" s="8"/>
       <c r="D176" s="3"/>
-      <c r="E176" s="9"/>
+      <c r="E176" s="8"/>
       <c r="F176" s="3"/>
-      <c r="G176" s="9"/>
-      <c r="H176" s="9"/>
-      <c r="I176" s="9"/>
-      <c r="J176" s="9"/>
+      <c r="G176" s="8"/>
+      <c r="H176" s="8"/>
+      <c r="I176" s="8"/>
+      <c r="J176" s="8"/>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
@@ -5274,16 +5150,16 @@
       <c r="O176" s="3"/>
     </row>
     <row r="177" spans="1:15">
-      <c r="A177" s="9"/>
+      <c r="A177" s="8"/>
       <c r="B177" s="4"/>
-      <c r="C177" s="9"/>
+      <c r="C177" s="8"/>
       <c r="D177" s="3"/>
-      <c r="E177" s="9"/>
+      <c r="E177" s="8"/>
       <c r="F177" s="3"/>
-      <c r="G177" s="9"/>
-      <c r="H177" s="9"/>
-      <c r="I177" s="9"/>
-      <c r="J177" s="9"/>
+      <c r="G177" s="8"/>
+      <c r="H177" s="8"/>
+      <c r="I177" s="8"/>
+      <c r="J177" s="8"/>
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
@@ -5291,16 +5167,16 @@
       <c r="O177" s="3"/>
     </row>
     <row r="178" spans="1:15">
-      <c r="A178" s="9"/>
+      <c r="A178" s="8"/>
       <c r="B178" s="4"/>
-      <c r="C178" s="9"/>
+      <c r="C178" s="8"/>
       <c r="D178" s="3"/>
-      <c r="E178" s="9"/>
+      <c r="E178" s="8"/>
       <c r="F178" s="3"/>
-      <c r="G178" s="9"/>
-      <c r="H178" s="9"/>
-      <c r="I178" s="9"/>
-      <c r="J178" s="9"/>
+      <c r="G178" s="8"/>
+      <c r="H178" s="8"/>
+      <c r="I178" s="8"/>
+      <c r="J178" s="8"/>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
@@ -5308,16 +5184,16 @@
       <c r="O178" s="3"/>
     </row>
     <row r="179" spans="1:15">
-      <c r="A179" s="9"/>
+      <c r="A179" s="8"/>
       <c r="B179" s="4"/>
-      <c r="C179" s="9"/>
+      <c r="C179" s="8"/>
       <c r="D179" s="3"/>
-      <c r="E179" s="9"/>
+      <c r="E179" s="8"/>
       <c r="F179" s="3"/>
-      <c r="G179" s="9"/>
-      <c r="H179" s="9"/>
-      <c r="I179" s="9"/>
-      <c r="J179" s="9"/>
+      <c r="G179" s="8"/>
+      <c r="H179" s="8"/>
+      <c r="I179" s="8"/>
+      <c r="J179" s="8"/>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
@@ -5325,16 +5201,16 @@
       <c r="O179" s="3"/>
     </row>
     <row r="180" spans="1:15">
-      <c r="A180" s="9"/>
+      <c r="A180" s="8"/>
       <c r="B180" s="4"/>
-      <c r="C180" s="9"/>
+      <c r="C180" s="8"/>
       <c r="D180" s="3"/>
-      <c r="E180" s="9"/>
+      <c r="E180" s="8"/>
       <c r="F180" s="3"/>
-      <c r="G180" s="9"/>
-      <c r="H180" s="9"/>
-      <c r="I180" s="9"/>
-      <c r="J180" s="9"/>
+      <c r="G180" s="8"/>
+      <c r="H180" s="8"/>
+      <c r="I180" s="8"/>
+      <c r="J180" s="8"/>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
@@ -5342,16 +5218,16 @@
       <c r="O180" s="3"/>
     </row>
     <row r="181" spans="1:15">
-      <c r="A181" s="9"/>
+      <c r="A181" s="8"/>
       <c r="B181" s="4"/>
-      <c r="C181" s="9"/>
+      <c r="C181" s="8"/>
       <c r="D181" s="3"/>
-      <c r="E181" s="9"/>
+      <c r="E181" s="8"/>
       <c r="F181" s="3"/>
-      <c r="G181" s="9"/>
-      <c r="H181" s="9"/>
-      <c r="I181" s="9"/>
-      <c r="J181" s="9"/>
+      <c r="G181" s="8"/>
+      <c r="H181" s="8"/>
+      <c r="I181" s="8"/>
+      <c r="J181" s="8"/>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
@@ -5359,16 +5235,16 @@
       <c r="O181" s="3"/>
     </row>
     <row r="182" spans="1:15">
-      <c r="A182" s="9"/>
+      <c r="A182" s="8"/>
       <c r="B182" s="4"/>
-      <c r="C182" s="9"/>
+      <c r="C182" s="8"/>
       <c r="D182" s="3"/>
-      <c r="E182" s="9"/>
+      <c r="E182" s="8"/>
       <c r="F182" s="3"/>
-      <c r="G182" s="9"/>
-      <c r="H182" s="9"/>
-      <c r="I182" s="9"/>
-      <c r="J182" s="9"/>
+      <c r="G182" s="8"/>
+      <c r="H182" s="8"/>
+      <c r="I182" s="8"/>
+      <c r="J182" s="8"/>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
@@ -5376,16 +5252,16 @@
       <c r="O182" s="3"/>
     </row>
     <row r="183" spans="1:15">
-      <c r="A183" s="9"/>
+      <c r="A183" s="8"/>
       <c r="B183" s="4"/>
-      <c r="C183" s="9"/>
+      <c r="C183" s="8"/>
       <c r="D183" s="3"/>
-      <c r="E183" s="9"/>
+      <c r="E183" s="8"/>
       <c r="F183" s="3"/>
-      <c r="G183" s="9"/>
-      <c r="H183" s="9"/>
-      <c r="I183" s="9"/>
-      <c r="J183" s="9"/>
+      <c r="G183" s="8"/>
+      <c r="H183" s="8"/>
+      <c r="I183" s="8"/>
+      <c r="J183" s="8"/>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
       <c r="M183" s="3"/>
@@ -5393,16 +5269,16 @@
       <c r="O183" s="3"/>
     </row>
     <row r="184" spans="1:15">
-      <c r="A184" s="9"/>
+      <c r="A184" s="8"/>
       <c r="B184" s="4"/>
-      <c r="C184" s="9"/>
+      <c r="C184" s="8"/>
       <c r="D184" s="3"/>
-      <c r="E184" s="9"/>
+      <c r="E184" s="8"/>
       <c r="F184" s="3"/>
-      <c r="G184" s="9"/>
-      <c r="H184" s="9"/>
-      <c r="I184" s="9"/>
-      <c r="J184" s="9"/>
+      <c r="G184" s="8"/>
+      <c r="H184" s="8"/>
+      <c r="I184" s="8"/>
+      <c r="J184" s="8"/>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
       <c r="M184" s="3"/>
@@ -5410,16 +5286,16 @@
       <c r="O184" s="3"/>
     </row>
     <row r="185" spans="1:15">
-      <c r="A185" s="9"/>
+      <c r="A185" s="8"/>
       <c r="B185" s="4"/>
-      <c r="C185" s="9"/>
+      <c r="C185" s="8"/>
       <c r="D185" s="3"/>
-      <c r="E185" s="9"/>
+      <c r="E185" s="8"/>
       <c r="F185" s="3"/>
-      <c r="G185" s="9"/>
-      <c r="H185" s="9"/>
-      <c r="I185" s="9"/>
-      <c r="J185" s="9"/>
+      <c r="G185" s="8"/>
+      <c r="H185" s="8"/>
+      <c r="I185" s="8"/>
+      <c r="J185" s="8"/>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
       <c r="M185" s="3"/>
@@ -5427,16 +5303,16 @@
       <c r="O185" s="3"/>
     </row>
     <row r="186" spans="1:15">
-      <c r="A186" s="9"/>
+      <c r="A186" s="8"/>
       <c r="B186" s="4"/>
-      <c r="C186" s="9"/>
+      <c r="C186" s="8"/>
       <c r="D186" s="3"/>
-      <c r="E186" s="9"/>
+      <c r="E186" s="8"/>
       <c r="F186" s="3"/>
-      <c r="G186" s="9"/>
-      <c r="H186" s="9"/>
-      <c r="I186" s="9"/>
-      <c r="J186" s="9"/>
+      <c r="G186" s="8"/>
+      <c r="H186" s="8"/>
+      <c r="I186" s="8"/>
+      <c r="J186" s="8"/>
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
       <c r="M186" s="3"/>
@@ -5444,16 +5320,16 @@
       <c r="O186" s="3"/>
     </row>
     <row r="187" spans="1:15">
-      <c r="A187" s="9"/>
+      <c r="A187" s="8"/>
       <c r="B187" s="4"/>
-      <c r="C187" s="9"/>
+      <c r="C187" s="8"/>
       <c r="D187" s="3"/>
-      <c r="E187" s="9"/>
+      <c r="E187" s="8"/>
       <c r="F187" s="3"/>
-      <c r="G187" s="9"/>
-      <c r="H187" s="9"/>
-      <c r="I187" s="9"/>
-      <c r="J187" s="9"/>
+      <c r="G187" s="8"/>
+      <c r="H187" s="8"/>
+      <c r="I187" s="8"/>
+      <c r="J187" s="8"/>
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
       <c r="M187" s="3"/>
@@ -5461,16 +5337,16 @@
       <c r="O187" s="3"/>
     </row>
     <row r="188" spans="1:15">
-      <c r="A188" s="9"/>
+      <c r="A188" s="8"/>
       <c r="B188" s="4"/>
-      <c r="C188" s="9"/>
+      <c r="C188" s="8"/>
       <c r="D188" s="3"/>
-      <c r="E188" s="9"/>
+      <c r="E188" s="8"/>
       <c r="F188" s="3"/>
-      <c r="G188" s="9"/>
-      <c r="H188" s="9"/>
-      <c r="I188" s="9"/>
-      <c r="J188" s="9"/>
+      <c r="G188" s="8"/>
+      <c r="H188" s="8"/>
+      <c r="I188" s="8"/>
+      <c r="J188" s="8"/>
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
       <c r="M188" s="3"/>
@@ -5478,16 +5354,16 @@
       <c r="O188" s="3"/>
     </row>
     <row r="189" spans="1:15">
-      <c r="A189" s="9"/>
+      <c r="A189" s="8"/>
       <c r="B189" s="4"/>
-      <c r="C189" s="9"/>
+      <c r="C189" s="8"/>
       <c r="D189" s="3"/>
-      <c r="E189" s="9"/>
+      <c r="E189" s="8"/>
       <c r="F189" s="3"/>
-      <c r="G189" s="9"/>
-      <c r="H189" s="9"/>
-      <c r="I189" s="9"/>
-      <c r="J189" s="9"/>
+      <c r="G189" s="8"/>
+      <c r="H189" s="8"/>
+      <c r="I189" s="8"/>
+      <c r="J189" s="8"/>
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
       <c r="M189" s="3"/>
@@ -5495,16 +5371,16 @@
       <c r="O189" s="3"/>
     </row>
     <row r="190" spans="1:15">
-      <c r="A190" s="9"/>
+      <c r="A190" s="8"/>
       <c r="B190" s="4"/>
-      <c r="C190" s="9"/>
+      <c r="C190" s="8"/>
       <c r="D190" s="3"/>
-      <c r="E190" s="9"/>
+      <c r="E190" s="8"/>
       <c r="F190" s="3"/>
-      <c r="G190" s="9"/>
-      <c r="H190" s="9"/>
-      <c r="I190" s="9"/>
-      <c r="J190" s="9"/>
+      <c r="G190" s="8"/>
+      <c r="H190" s="8"/>
+      <c r="I190" s="8"/>
+      <c r="J190" s="8"/>
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
       <c r="M190" s="3"/>
@@ -5512,16 +5388,16 @@
       <c r="O190" s="3"/>
     </row>
     <row r="191" spans="1:15">
-      <c r="A191" s="9"/>
+      <c r="A191" s="8"/>
       <c r="B191" s="4"/>
-      <c r="C191" s="9"/>
+      <c r="C191" s="8"/>
       <c r="D191" s="3"/>
-      <c r="E191" s="9"/>
+      <c r="E191" s="8"/>
       <c r="F191" s="3"/>
-      <c r="G191" s="9"/>
-      <c r="H191" s="9"/>
-      <c r="I191" s="9"/>
-      <c r="J191" s="9"/>
+      <c r="G191" s="8"/>
+      <c r="H191" s="8"/>
+      <c r="I191" s="8"/>
+      <c r="J191" s="8"/>
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
       <c r="M191" s="3"/>
@@ -5529,16 +5405,16 @@
       <c r="O191" s="3"/>
     </row>
     <row r="192" spans="1:15">
-      <c r="A192" s="9"/>
+      <c r="A192" s="8"/>
       <c r="B192" s="4"/>
-      <c r="C192" s="9"/>
+      <c r="C192" s="8"/>
       <c r="D192" s="3"/>
-      <c r="E192" s="9"/>
+      <c r="E192" s="8"/>
       <c r="F192" s="3"/>
-      <c r="G192" s="9"/>
-      <c r="H192" s="9"/>
-      <c r="I192" s="9"/>
-      <c r="J192" s="9"/>
+      <c r="G192" s="8"/>
+      <c r="H192" s="8"/>
+      <c r="I192" s="8"/>
+      <c r="J192" s="8"/>
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
       <c r="M192" s="3"/>
@@ -5546,80 +5422,43 @@
       <c r="O192" s="3"/>
     </row>
     <row r="193" spans="1:15">
-      <c r="A193" s="9"/>
+      <c r="A193" s="8"/>
       <c r="B193" s="4"/>
-      <c r="C193" s="9"/>
+      <c r="C193" s="8"/>
       <c r="D193" s="3"/>
-      <c r="E193" s="9"/>
+      <c r="E193" s="8"/>
       <c r="F193" s="3"/>
-      <c r="G193" s="9"/>
-      <c r="H193" s="9"/>
-      <c r="I193" s="9"/>
-      <c r="J193" s="9"/>
+      <c r="G193" s="8"/>
+      <c r="H193" s="8"/>
+      <c r="I193" s="8"/>
+      <c r="J193" s="8"/>
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
       <c r="M193" s="3"/>
       <c r="N193" s="3"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15">
-      <c r="A194" s="9"/>
-      <c r="B194" s="4"/>
-      <c r="C194" s="9"/>
-      <c r="D194" s="3"/>
-      <c r="E194" s="9"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="9"/>
-      <c r="H194" s="9"/>
-      <c r="I194" s="9"/>
-      <c r="J194" s="9"/>
-      <c r="K194" s="3"/>
-      <c r="L194" s="3"/>
-      <c r="M194" s="3"/>
-      <c r="N194" s="3"/>
-      <c r="O194" s="3"/>
-    </row>
-    <row r="195" spans="1:15">
-      <c r="A195" s="9"/>
-      <c r="B195" s="4"/>
-      <c r="C195" s="9"/>
-      <c r="D195" s="3"/>
-      <c r="E195" s="9"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="9"/>
-      <c r="H195" s="9"/>
-      <c r="I195" s="9"/>
-      <c r="J195" s="9"/>
-      <c r="K195" s="3"/>
-      <c r="L195" s="3"/>
-      <c r="M195" s="3"/>
-      <c r="N195" s="3"/>
-      <c r="O195" s="3"/>
-    </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3">
       <formula1>"百度,gitee,芒果测试平台,芒果mock"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H5 I5:J5 G2:G195 H2:J4 I6:J195">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2 C3:C193">
+      <formula1>"开发环境,测试环境,预发环境,验收环境,仿真环境,生产环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2 E3:E193">
+      <formula1>"WEB,安卓,微信小程序"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2 H2:J2 H3:J3 G3:G193 I4:J193">
       <formula1>"关闭,启用"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B3:B4 B6:B195">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B4:B193">
       <formula1>"CDP,DESK,玩安卓,百度翻译,gitee,芒果测试平台,智投"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C195">
-      <formula1>"开发环境,测试环境,预发环境,验收环境,仿真环境,生产环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E195">
-      <formula1>"WEB,安卓,微信小程序"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" display="http://localhost:8000/"/>
-    <hyperlink ref="F3" r:id="rId2" display="https://gitee.com/"/>
-    <hyperlink ref="F2" r:id="rId3" display="https://fanyi-api.baidu.com/"/>
-    <hyperlink ref="K4" r:id="rId4" display="localhost"/>
-    <hyperlink ref="F5" r:id="rId5" display="http://43.142.161.61:8003/" tooltip="http://43.142.161.61:8003/"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://www.baidu.com/" tooltip="https://www.baidu.com/"/>
+    <hyperlink ref="F3" r:id="rId2" display="http://43.142.161.61:8003/" tooltip="http://43.142.161.61:8003/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5631,13 +5470,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D197"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -5650,16 +5489,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="2" ht="13.8" spans="1:4">
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5667,53 +5506,37 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="3" ht="13.8" spans="1:4">
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3"/>
@@ -6867,35 +6690,21 @@
       <c r="C197" s="3"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
-      <c r="D198" s="5"/>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
-      <c r="D199" s="5"/>
-    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5">
-      <formula1>"百度,gitee,芒果测试平台,芒果mock"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2 C3:C197">
+      <formula1>"企微,邮箱,钉钉"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B6:B199">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3">
+      <formula1>"百度,芒果mock"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B4:B197">
       <formula1>"CDP,DESK,玩安卓,百度翻译,gitee,芒果测试平台,智投"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C5 C6:C199">
-      <formula1>"企微,邮箱,钉钉"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="[&quot;729164035@qq.com&quot;]"/>
-    <hyperlink ref="D4" r:id="rId2" display="[&quot;729164035@qq.com&quot;]"/>
-    <hyperlink ref="D3" r:id="rId1" display="[&quot;729164035@qq.com&quot;]"/>
-    <hyperlink ref="D5" r:id="rId2" display="[&quot;729164036@qq.com&quot;]"/>
+    <hyperlink ref="D3" r:id="rId2" display="[&quot;729164036@qq.com&quot;]"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
